--- a/1137372539/localisation/excel/equipment_l_german.xlsx
+++ b/1137372539/localisation/excel/equipment_l_german.xlsx
@@ -944,12 +944,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -976,8 +980,8 @@
   </sheetPr>
   <dimension ref="A1:D5000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D185" activeCellId="0" sqref="D1:D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -985,7 +989,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="84.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="98.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,11 +1010,11 @@
       </c>
       <c r="C2" s="1" t="str">
         <f aca="false">A2 &amp;" " &amp;"""" &amp;B2 &amp;""""</f>
-        <v> ## Needed due to DLC overwriting otherwise ""</v>
+        <v>## Needed due to DLC overwriting otherwise ""</v>
       </c>
       <c r="D2" s="1" t="str">
         <f aca="false">IF(ISBLANK(A2),"",C2)</f>
-        <v> ## Needed due to DLC overwriting otherwise ""</v>
+        <v>## Needed due to DLC overwriting otherwise ""</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,11 +1023,11 @@
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">A3 &amp;" " &amp;"""" &amp;B3 &amp;""""</f>
-        <v> ## Poland ""</v>
+        <v>## Poland ""</v>
       </c>
       <c r="D3" s="1" t="str">
         <f aca="false">IF(ISBLANK(A3),"",C3)</f>
-        <v> ## Poland ""</v>
+        <v>## Poland ""</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,11 +1039,11 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v> POL_infantry_uniforms_0:9 "Uniform wz. 19"</v>
+        <v>POL_infantry_uniforms_0:9 "Uniform wz. 19"</v>
       </c>
       <c r="D4" s="1" t="str">
         <f aca="false">IF(ISBLANK(A4),"",C4)</f>
-        <v> POL_infantry_uniforms_0:9 "Uniform wz. 19"</v>
+        <v>POL_infantry_uniforms_0:9 "Uniform wz. 19"</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,11 +1055,11 @@
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">A5 &amp;" " &amp;"""" &amp;B5 &amp;""""</f>
-        <v> POL_infantry_uniforms_0_short:9 "Uniform wz. 19"</v>
+        <v>POL_infantry_uniforms_0_short:9 "Uniform wz. 19"</v>
       </c>
       <c r="D5" s="1" t="str">
         <f aca="false">IF(ISBLANK(A5),"",C5)</f>
-        <v> POL_infantry_uniforms_0_short:9 "Uniform wz. 19"</v>
+        <v>POL_infantry_uniforms_0_short:9 "Uniform wz. 19"</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,11 +1071,11 @@
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v> POL_infantry_uniforms_1:9 "Uniform wz. 36"</v>
+        <v>POL_infantry_uniforms_1:9 "Uniform wz. 36"</v>
       </c>
       <c r="D6" s="1" t="str">
         <f aca="false">IF(ISBLANK(A6),"",C6)</f>
-        <v> POL_infantry_uniforms_1:9 "Uniform wz. 36"</v>
+        <v>POL_infantry_uniforms_1:9 "Uniform wz. 36"</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,11 +1087,11 @@
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v> POL_infantry_uniforms_1_short:9 "Uniform wz. 36"</v>
+        <v>POL_infantry_uniforms_1_short:9 "Uniform wz. 36"</v>
       </c>
       <c r="D7" s="1" t="str">
         <f aca="false">IF(ISBLANK(A7),"",C7)</f>
-        <v> POL_infantry_uniforms_1_short:9 "Uniform wz. 36"</v>
+        <v>POL_infantry_uniforms_1_short:9 "Uniform wz. 36"</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,11 +1103,11 @@
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8 &amp;" " &amp;"""" &amp;B8 &amp;""""</f>
-        <v> POL_infantry_uniforms_2:9 "Uniform wz. 40"</v>
+        <v>POL_infantry_uniforms_2:9 "Uniform wz. 40"</v>
       </c>
       <c r="D8" s="1" t="str">
         <f aca="false">IF(ISBLANK(A8),"",C8)</f>
-        <v> POL_infantry_uniforms_2:9 "Uniform wz. 40"</v>
+        <v>POL_infantry_uniforms_2:9 "Uniform wz. 40"</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,11 +1119,11 @@
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v> POL_infantry_uniforms_2_short:9 "Uniform wz. 40"</v>
+        <v>POL_infantry_uniforms_2_short:9 "Uniform wz. 40"</v>
       </c>
       <c r="D9" s="1" t="str">
         <f aca="false">IF(ISBLANK(A9),"",C9)</f>
-        <v> POL_infantry_uniforms_2_short:9 "Uniform wz. 40"</v>
+        <v>POL_infantry_uniforms_2_short:9 "Uniform wz. 40"</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,11 +1135,11 @@
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10 &amp;" " &amp;"""" &amp;B10 &amp;""""</f>
-        <v> POL_infantry_uniforms_3:9 "Uniform wz. 44"</v>
+        <v>POL_infantry_uniforms_3:9 "Uniform wz. 44"</v>
       </c>
       <c r="D10" s="1" t="str">
         <f aca="false">IF(ISBLANK(A10),"",C10)</f>
-        <v> POL_infantry_uniforms_3:9 "Uniform wz. 44"</v>
+        <v>POL_infantry_uniforms_3:9 "Uniform wz. 44"</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,17 +1151,17 @@
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11 &amp;" " &amp;"""" &amp;B11 &amp;""""</f>
-        <v> POL_infantry_uniforms_3_short:9 "Uniform wz. 44"</v>
+        <v>POL_infantry_uniforms_3_short:9 "Uniform wz. 44"</v>
       </c>
       <c r="D11" s="1" t="str">
         <f aca="false">IF(ISBLANK(A11),"",C11)</f>
-        <v> POL_infantry_uniforms_3_short:9 "Uniform wz. 44"</v>
+        <v>POL_infantry_uniforms_3_short:9 "Uniform wz. 44"</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="1" t="str">
         <f aca="false">A12 &amp;" " &amp;"""" &amp;B12 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D12" s="1" t="str">
         <f aca="false">IF(ISBLANK(A12),"",C12)</f>
@@ -1173,11 +1177,11 @@
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13 &amp;" " &amp;"""" &amp;B13 &amp;""""</f>
-        <v> POL_infantry_equipment_0:9 "Gewehr wz. 98"</v>
+        <v>POL_infantry_equipment_0:9 "Gewehr wz. 98"</v>
       </c>
       <c r="D13" s="1" t="str">
         <f aca="false">IF(ISBLANK(A13),"",C13)</f>
-        <v> POL_infantry_equipment_0:9 "Gewehr wz. 98"</v>
+        <v>POL_infantry_equipment_0:9 "Gewehr wz. 98"</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,11 +1193,11 @@
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14 &amp;" " &amp;"""" &amp;B14 &amp;""""</f>
-        <v> POL_infantry_equipment_0_short:9 "Kb wz. 98"</v>
+        <v>POL_infantry_equipment_0_short:9 "Kb wz. 98"</v>
       </c>
       <c r="D14" s="1" t="str">
         <f aca="false">IF(ISBLANK(A14),"",C14)</f>
-        <v> POL_infantry_equipment_0_short:9 "Kb wz. 98"</v>
+        <v>POL_infantry_equipment_0_short:9 "Kb wz. 98"</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,11 +1209,11 @@
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">A15 &amp;" " &amp;"""" &amp;B15 &amp;""""</f>
-        <v> POL_infantry_equipment_1:9 "Karabiner wz. 29"</v>
+        <v>POL_infantry_equipment_1:9 "Karabiner wz. 29"</v>
       </c>
       <c r="D15" s="1" t="str">
         <f aca="false">IF(ISBLANK(A15),"",C15)</f>
-        <v> POL_infantry_equipment_1:9 "Karabiner wz. 29"</v>
+        <v>POL_infantry_equipment_1:9 "Karabiner wz. 29"</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,11 +1225,11 @@
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16 &amp;" " &amp;"""" &amp;B16 &amp;""""</f>
-        <v> POL_infantry_equipment_1_short:9 "Kbk wz. 29"</v>
+        <v>POL_infantry_equipment_1_short:9 "Kbk wz. 29"</v>
       </c>
       <c r="D16" s="1" t="str">
         <f aca="false">IF(ISBLANK(A16),"",C16)</f>
-        <v> POL_infantry_equipment_1_short:9 "Kbk wz. 29"</v>
+        <v>POL_infantry_equipment_1_short:9 "Kbk wz. 29"</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,11 +1241,11 @@
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17 &amp;" " &amp;"""" &amp;B17 &amp;""""</f>
-        <v> POL_infantry_equipment_2:9 "Automatikgewehr wz. 38M"</v>
+        <v>POL_infantry_equipment_2:9 "Automatikgewehr wz. 38M"</v>
       </c>
       <c r="D17" s="1" t="str">
         <f aca="false">IF(ISBLANK(A17),"",C17)</f>
-        <v> POL_infantry_equipment_2:9 "Automatikgewehr wz. 38M"</v>
+        <v>POL_infantry_equipment_2:9 "Automatikgewehr wz. 38M"</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,11 +1257,11 @@
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18 &amp;" " &amp;"""" &amp;B18 &amp;""""</f>
-        <v> POL_infantry_equipment_2_short:9 "Kbsp wz. 38M"</v>
+        <v>POL_infantry_equipment_2_short:9 "Kbsp wz. 38M"</v>
       </c>
       <c r="D18" s="1" t="str">
         <f aca="false">IF(ISBLANK(A18),"",C18)</f>
-        <v> POL_infantry_equipment_2_short:9 "Kbsp wz. 38M"</v>
+        <v>POL_infantry_equipment_2_short:9 "Kbsp wz. 38M"</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,11 +1273,11 @@
       </c>
       <c r="C19" s="1" t="str">
         <f aca="false">A19 &amp;" " &amp;"""" &amp;B19 &amp;""""</f>
-        <v> POL_infantry_equipment_3:9 "Automatikgewehr wz. 43"</v>
+        <v>POL_infantry_equipment_3:9 "Automatikgewehr wz. 43"</v>
       </c>
       <c r="D19" s="1" t="str">
         <f aca="false">IF(ISBLANK(A19),"",C19)</f>
-        <v> POL_infantry_equipment_3:9 "Automatikgewehr wz. 43"</v>
+        <v>POL_infantry_equipment_3:9 "Automatikgewehr wz. 43"</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,17 +1289,17 @@
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20 &amp;" " &amp;"""" &amp;B20 &amp;""""</f>
-        <v> POL_infantry_equipment_3_short:9 "Kbsp wz. 43"</v>
+        <v>POL_infantry_equipment_3_short:9 "Kbsp wz. 43"</v>
       </c>
       <c r="D20" s="1" t="str">
         <f aca="false">IF(ISBLANK(A20),"",C20)</f>
-        <v> POL_infantry_equipment_3_short:9 "Kbsp wz. 43"</v>
+        <v>POL_infantry_equipment_3_short:9 "Kbsp wz. 43"</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="str">
         <f aca="false">A21 &amp;" " &amp;"""" &amp;B21 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D21" s="1" t="str">
         <f aca="false">IF(ISBLANK(A21),"",C21)</f>
@@ -1311,17 +1315,17 @@
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22 &amp;" " &amp;"""" &amp;B22 &amp;""""</f>
-        <v> POL_handheld_at_equipment_0:9 "Panzerabwehrgewehr wz.35 "Uruguay".  POL_handheld_at_equipment_0_short:9 "Kb ppanc wz. 35"</v>
+        <v>POL_handheld_at_equipment_0:9 "Panzerabwehrgewehr wz.35 "Uruguay".  POL_handheld_at_equipment_0_short:9 "Kb ppanc wz. 35"</v>
       </c>
       <c r="D22" s="1" t="str">
         <f aca="false">IF(ISBLANK(A22),"",C22)</f>
-        <v> POL_handheld_at_equipment_0:9 "Panzerabwehrgewehr wz.35 "Uruguay".  POL_handheld_at_equipment_0_short:9 "Kb ppanc wz. 35"</v>
+        <v>POL_handheld_at_equipment_0:9 "Panzerabwehrgewehr wz.35 "Uruguay".  POL_handheld_at_equipment_0_short:9 "Kb ppanc wz. 35"</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="str">
         <f aca="false">A23 &amp;" " &amp;"""" &amp;B23 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D23" s="1" t="str">
         <f aca="false">IF(ISBLANK(A23),"",C23)</f>
@@ -1337,11 +1341,11 @@
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24 &amp;" " &amp;"""" &amp;B24 &amp;""""</f>
-        <v> POL_SMG_equipment_0:9 "Thompson wz. 28"</v>
+        <v>POL_SMG_equipment_0:9 "Thompson wz. 28"</v>
       </c>
       <c r="D24" s="1" t="str">
         <f aca="false">IF(ISBLANK(A24),"",C24)</f>
-        <v> POL_SMG_equipment_0:9 "Thompson wz. 28"</v>
+        <v>POL_SMG_equipment_0:9 "Thompson wz. 28"</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,11 +1357,11 @@
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25 &amp;" " &amp;"""" &amp;B25 &amp;""""</f>
-        <v> POL_SMG_equipment_0_short:9 "Thompson wz. 28"</v>
+        <v>POL_SMG_equipment_0_short:9 "Thompson wz. 28"</v>
       </c>
       <c r="D25" s="1" t="str">
         <f aca="false">IF(ISBLANK(A25),"",C25)</f>
-        <v> POL_SMG_equipment_0_short:9 "Thompson wz. 28"</v>
+        <v>POL_SMG_equipment_0_short:9 "Thompson wz. 28"</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,11 +1373,11 @@
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26 &amp;" " &amp;"""" &amp;B26 &amp;""""</f>
-        <v> POL_SMG_equipment_0_desc:9 "Mit Maschinenpistolen ausgerüstete Infanterieeinheiten mit Schwerpunkt auf Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen zugunsten von Feuerkraft im Nahbereich opfern. "</v>
+        <v>POL_SMG_equipment_0_desc:9 "Mit Maschinenpistolen ausgerüstete Infanterieeinheiten mit Schwerpunkt auf Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen zugunsten von Feuerkraft im Nahbereich opfern. "</v>
       </c>
       <c r="D26" s="1" t="str">
         <f aca="false">IF(ISBLANK(A26),"",C26)</f>
-        <v> POL_SMG_equipment_0_desc:9 "Mit Maschinenpistolen ausgerüstete Infanterieeinheiten mit Schwerpunkt auf Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen zugunsten von Feuerkraft im Nahbereich opfern. "</v>
+        <v>POL_SMG_equipment_0_desc:9 "Mit Maschinenpistolen ausgerüstete Infanterieeinheiten mit Schwerpunkt auf Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen zugunsten von Feuerkraft im Nahbereich opfern. "</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,11 +1389,11 @@
       </c>
       <c r="C27" s="1" t="str">
         <f aca="false">A27 &amp;" " &amp;"""" &amp;B27 &amp;""""</f>
-        <v> POL_SMG_equipment_1:9 "Maschinenpistole Modell 39.  POL_SMG_Ausrüstung_1_kurz:9 "Pm wz. 39"</v>
+        <v>POL_SMG_equipment_1:9 "Maschinenpistole Modell 39.  POL_SMG_Ausrüstung_1_kurz:9 "Pm wz. 39"</v>
       </c>
       <c r="D27" s="1" t="str">
         <f aca="false">IF(ISBLANK(A27),"",C27)</f>
-        <v> POL_SMG_equipment_1:9 "Maschinenpistole Modell 39.  POL_SMG_Ausrüstung_1_kurz:9 "Pm wz. 39"</v>
+        <v>POL_SMG_equipment_1:9 "Maschinenpistole Modell 39.  POL_SMG_Ausrüstung_1_kurz:9 "Pm wz. 39"</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,11 +1405,11 @@
       </c>
       <c r="C28" s="1" t="str">
         <f aca="false">A28 &amp;" " &amp;"""" &amp;B28 &amp;""""</f>
-        <v> POL_SMG_equipment_1_desc:9 "Mit Maschinenpistolen ausgerüstete Infanterieeinheiten mit Schwerpunkt Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen für die Feuerkraft im Nahbereich opfern. "</v>
+        <v>POL_SMG_equipment_1_desc:9 "Mit Maschinenpistolen ausgerüstete Infanterieeinheiten mit Schwerpunkt Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen für die Feuerkraft im Nahbereich opfern. "</v>
       </c>
       <c r="D28" s="1" t="str">
         <f aca="false">IF(ISBLANK(A28),"",C28)</f>
-        <v> POL_SMG_equipment_1_desc:9 "Mit Maschinenpistolen ausgerüstete Infanterieeinheiten mit Schwerpunkt Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen für die Feuerkraft im Nahbereich opfern. "</v>
+        <v>POL_SMG_equipment_1_desc:9 "Mit Maschinenpistolen ausgerüstete Infanterieeinheiten mit Schwerpunkt Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen für die Feuerkraft im Nahbereich opfern. "</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,11 +1421,11 @@
       </c>
       <c r="C29" s="1" t="str">
         <f aca="false">A29 &amp;" " &amp;"""" &amp;B29 &amp;""""</f>
-        <v> POL_SMG_equipment_2:9 "Maschinengewehr \n-"STEN".  POL_SMG_Ausrüstung_2_kurz:9 "Pm STEN"</v>
+        <v>POL_SMG_equipment_2:9 "Maschinengewehr \n-"STEN".  POL_SMG_Ausrüstung_2_kurz:9 "Pm STEN"</v>
       </c>
       <c r="D29" s="1" t="str">
         <f aca="false">IF(ISBLANK(A29),"",C29)</f>
-        <v> POL_SMG_equipment_2:9 "Maschinengewehr \n-"STEN".  POL_SMG_Ausrüstung_2_kurz:9 "Pm STEN"</v>
+        <v>POL_SMG_equipment_2:9 "Maschinengewehr \n-"STEN".  POL_SMG_Ausrüstung_2_kurz:9 "Pm STEN"</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,11 +1437,11 @@
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v> POL_SMG_equipment_2_desc:9 "Mit SMG ausgerüstete Infanterieeinheiten mit Schwerpunkt Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen für die Feuerkraft im Nahbereich opfern. "</v>
+        <v>POL_SMG_equipment_2_desc:9 "Mit SMG ausgerüstete Infanterieeinheiten mit Schwerpunkt Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen für die Feuerkraft im Nahbereich opfern. "</v>
       </c>
       <c r="D30" s="1" t="str">
         <f aca="false">IF(ISBLANK(A30),"",C30)</f>
-        <v> POL_SMG_equipment_2_desc:9 "Mit SMG ausgerüstete Infanterieeinheiten mit Schwerpunkt Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen für die Feuerkraft im Nahbereich opfern. "</v>
+        <v>POL_SMG_equipment_2_desc:9 "Mit SMG ausgerüstete Infanterieeinheiten mit Schwerpunkt Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen für die Feuerkraft im Nahbereich opfern. "</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,11 +1453,11 @@
       </c>
       <c r="C31" s="1" t="str">
         <f aca="false">A31 &amp;" " &amp;"""" &amp;B31 &amp;""""</f>
-        <v> POL_SMG_equipment_3:9 "Maschinenpistole \"Lightning".  POL_SMG_Ausrüstung_3_kurz:9 "Pm Blyskawica"</v>
+        <v>POL_SMG_equipment_3:9 "Maschinenpistole \"Lightning".  POL_SMG_Ausrüstung_3_kurz:9 "Pm Blyskawica"</v>
       </c>
       <c r="D31" s="1" t="str">
         <f aca="false">IF(ISBLANK(A31),"",C31)</f>
-        <v> POL_SMG_equipment_3:9 "Maschinenpistole \"Lightning".  POL_SMG_Ausrüstung_3_kurz:9 "Pm Blyskawica"</v>
+        <v>POL_SMG_equipment_3:9 "Maschinenpistole \"Lightning".  POL_SMG_Ausrüstung_3_kurz:9 "Pm Blyskawica"</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,17 +1469,17 @@
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">A32 &amp;" " &amp;"""" &amp;B32 &amp;""""</f>
-        <v> POL_SMG_equipment_3_desc:9 "Mit SMG ausgerüstete Infanterieeinheiten mit Fokus auf den Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen für die Feuerkraft im Nahbereich opfern. "</v>
+        <v>POL_SMG_equipment_3_desc:9 "Mit SMG ausgerüstete Infanterieeinheiten mit Fokus auf den Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen für die Feuerkraft im Nahbereich opfern. "</v>
       </c>
       <c r="D32" s="1" t="str">
         <f aca="false">IF(ISBLANK(A32),"",C32)</f>
-        <v> POL_SMG_equipment_3_desc:9 "Mit SMG ausgerüstete Infanterieeinheiten mit Fokus auf den Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen für die Feuerkraft im Nahbereich opfern. "</v>
+        <v>POL_SMG_equipment_3_desc:9 "Mit SMG ausgerüstete Infanterieeinheiten mit Fokus auf den Nahkampf und Ausbildung in unwegsamem Gelände, die schwere Waffen für die Feuerkraft im Nahbereich opfern. "</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="1" t="str">
         <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D33" s="1" t="str">
         <f aca="false">IF(ISBLANK(A33),"",C33)</f>
@@ -1491,11 +1495,11 @@
       </c>
       <c r="C34" s="1" t="str">
         <f aca="false">A34 &amp;" " &amp;"""" &amp;B34 &amp;""""</f>
-        <v> POL_assault_rifle_equipment_0:9 "Sturmgewehr Lightning II"</v>
+        <v>POL_assault_rifle_equipment_0:9 "Sturmgewehr Lightning II"</v>
       </c>
       <c r="D34" s="1" t="str">
         <f aca="false">IF(ISBLANK(A34),"",C34)</f>
-        <v> POL_assault_rifle_equipment_0:9 "Sturmgewehr Lightning II"</v>
+        <v>POL_assault_rifle_equipment_0:9 "Sturmgewehr Lightning II"</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,11 +1511,11 @@
       </c>
       <c r="C35" s="1" t="str">
         <f aca="false">A35 &amp;" " &amp;"""" &amp;B35 &amp;""""</f>
-        <v> POL_assault_rifle_equipment_0_short:9 "Blitzschlag II"</v>
+        <v>POL_assault_rifle_equipment_0_short:9 "Blitzschlag II"</v>
       </c>
       <c r="D35" s="1" t="str">
         <f aca="false">IF(ISBLANK(A35),"",C35)</f>
-        <v> POL_assault_rifle_equipment_0_short:9 "Blitzschlag II"</v>
+        <v>POL_assault_rifle_equipment_0_short:9 "Blitzschlag II"</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,17 +1524,17 @@
       </c>
       <c r="C36" s="1" t="str">
         <f aca="false">A36 &amp;" " &amp;"""" &amp;B36 &amp;""""</f>
-        <v> POL_assault_rifle_equipment_0_desc:9 ""</v>
+        <v>POL_assault_rifle_equipment_0_desc:9 ""</v>
       </c>
       <c r="D36" s="1" t="str">
         <f aca="false">IF(ISBLANK(A36),"",C36)</f>
-        <v> POL_assault_rifle_equipment_0_desc:9 ""</v>
+        <v>POL_assault_rifle_equipment_0_desc:9 ""</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="1" t="str">
         <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D37" s="1" t="str">
         <f aca="false">IF(ISBLANK(A37),"",C37)</f>
@@ -1546,11 +1550,11 @@
       </c>
       <c r="C38" s="1" t="str">
         <f aca="false">A38 &amp;" " &amp;"""" &amp;B38 &amp;""""</f>
-        <v> POL_HMG_equipment_0:9 "Manuelles Maschinengewehr Wz. 28"</v>
+        <v>POL_HMG_equipment_0:9 "Manuelles Maschinengewehr Wz. 28"</v>
       </c>
       <c r="D38" s="1" t="str">
         <f aca="false">IF(ISBLANK(A38),"",C38)</f>
-        <v> POL_HMG_equipment_0:9 "Manuelles Maschinengewehr Wz. 28"</v>
+        <v>POL_HMG_equipment_0:9 "Manuelles Maschinengewehr Wz. 28"</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,11 +1566,11 @@
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v> POL_HMG_equipment_0_short:9 "Rkm wz. 28"</v>
+        <v>POL_HMG_equipment_0_short:9 "Rkm wz. 28"</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">IF(ISBLANK(A39),"",C39)</f>
-        <v> POL_HMG_equipment_0_short:9 "Rkm wz. 28"</v>
+        <v>POL_HMG_equipment_0_short:9 "Rkm wz. 28"</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,11 +1582,11 @@
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">A40 &amp;" " &amp;"""" &amp;B40 &amp;""""</f>
-        <v> POL_HMG_equipment_1:9 "Schweres Maschinengewehr wz. 30a"</v>
+        <v>POL_HMG_equipment_1:9 "Schweres Maschinengewehr wz. 30a"</v>
       </c>
       <c r="D40" s="1" t="str">
         <f aca="false">IF(ISBLANK(A40),"",C40)</f>
-        <v> POL_HMG_equipment_1:9 "Schweres Maschinengewehr wz. 30a"</v>
+        <v>POL_HMG_equipment_1:9 "Schweres Maschinengewehr wz. 30a"</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,11 +1598,11 @@
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v> POL_HMG_equipment_1_short:9 "Ckm wz. 30a"</v>
+        <v>POL_HMG_equipment_1_short:9 "Ckm wz. 30a"</v>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">IF(ISBLANK(A41),"",C41)</f>
-        <v> POL_HMG_equipment_1_short:9 "Ckm wz. 30a"</v>
+        <v>POL_HMG_equipment_1_short:9 "Ckm wz. 30a"</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,11 +1614,11 @@
       </c>
       <c r="C42" s="1" t="str">
         <f aca="false">A42 &amp;" " &amp;"""" &amp;B42 &amp;""""</f>
-        <v> POL_HMG_equipment_2:9 "Schweres Maschinengewehr Typ C"</v>
+        <v>POL_HMG_equipment_2:9 "Schweres Maschinengewehr Typ C"</v>
       </c>
       <c r="D42" s="1" t="str">
         <f aca="false">IF(ISBLANK(A42),"",C42)</f>
-        <v> POL_HMG_equipment_2:9 "Schweres Maschinengewehr Typ C"</v>
+        <v>POL_HMG_equipment_2:9 "Schweres Maschinengewehr Typ C"</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,17 +1630,17 @@
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">A43 &amp;" " &amp;"""" &amp;B43 &amp;""""</f>
-        <v> POL_HMG_equipment_2_short:9 "Schweres Maschinengewehr wz. C"</v>
+        <v>POL_HMG_equipment_2_short:9 "Schweres Maschinengewehr wz. C"</v>
       </c>
       <c r="D43" s="1" t="str">
         <f aca="false">IF(ISBLANK(A43),"",C43)</f>
-        <v> POL_HMG_equipment_2_short:9 "Schweres Maschinengewehr wz. C"</v>
+        <v>POL_HMG_equipment_2_short:9 "Schweres Maschinengewehr wz. C"</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1" t="str">
         <f aca="false">A44 &amp;" " &amp;"""" &amp;B44 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D44" s="1" t="str">
         <f aca="false">IF(ISBLANK(A44),"",C44)</f>
@@ -1652,11 +1656,11 @@
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v> #POL_mortar_equipment_0:9 "81mm Mörser wz. 31"</v>
+        <v>#POL_mortar_equipment_0:9 "81mm Mörser wz. 31"</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IF(ISBLANK(A45),"",C45)</f>
-        <v> #POL_mortar_equipment_0:9 "81mm Mörser wz. 31"</v>
+        <v>#POL_mortar_equipment_0:9 "81mm Mörser wz. 31"</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,11 +1672,11 @@
       </c>
       <c r="C46" s="1" t="str">
         <f aca="false">A46 &amp;" " &amp;"""" &amp;B46 &amp;""""</f>
-        <v> POL_mortar_equipment_0_short:9 "81mm Mörser wz. 31"</v>
+        <v>POL_mortar_equipment_0_short:9 "81mm Mörser wz. 31"</v>
       </c>
       <c r="D46" s="1" t="str">
         <f aca="false">IF(ISBLANK(A46),"",C46)</f>
-        <v> POL_mortar_equipment_0_short:9 "81mm Mörser wz. 31"</v>
+        <v>POL_mortar_equipment_0_short:9 "81mm Mörser wz. 31"</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,11 +1688,11 @@
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v> #POL_mortar_equipment_1:9 "Granatwerfer 47mm wz. 36"</v>
+        <v>#POL_mortar_equipment_1:9 "Granatwerfer 47mm wz. 36"</v>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">IF(ISBLANK(A47),"",C47)</f>
-        <v> #POL_mortar_equipment_1:9 "Granatwerfer 47mm wz. 36"</v>
+        <v>#POL_mortar_equipment_1:9 "Granatwerfer 47mm wz. 36"</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,11 +1704,11 @@
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v> POL_mortar_equipment_1_short:9 "Granatwerfer 47mm wz. 36"</v>
+        <v>POL_mortar_equipment_1_short:9 "Granatwerfer 47mm wz. 36"</v>
       </c>
       <c r="D48" s="1" t="str">
         <f aca="false">IF(ISBLANK(A48),"",C48)</f>
-        <v> POL_mortar_equipment_1_short:9 "Granatwerfer 47mm wz. 36"</v>
+        <v>POL_mortar_equipment_1_short:9 "Granatwerfer 47mm wz. 36"</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,11 +1720,11 @@
       </c>
       <c r="C49" s="1" t="str">
         <f aca="false">A49 &amp;" " &amp;"""" &amp;B49 &amp;""""</f>
-        <v> #POL_mortar_equipment_2:9 "Mörser 120mm wz. 40 ST"</v>
+        <v>#POL_mortar_equipment_2:9 "Mörser 120mm wz. 40 ST"</v>
       </c>
       <c r="D49" s="1" t="str">
         <f aca="false">IF(ISBLANK(A49),"",C49)</f>
-        <v> #POL_mortar_equipment_2:9 "Mörser 120mm wz. 40 ST"</v>
+        <v>#POL_mortar_equipment_2:9 "Mörser 120mm wz. 40 ST"</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,17 +1736,17 @@
       </c>
       <c r="C50" s="1" t="str">
         <f aca="false">A50 &amp;" " &amp;"""" &amp;B50 &amp;""""</f>
-        <v> POL_mortar_equipment_2_short:9 "Mörser 120mm wz. 40"</v>
+        <v>POL_mortar_equipment_2_short:9 "Mörser 120mm wz. 40"</v>
       </c>
       <c r="D50" s="1" t="str">
         <f aca="false">IF(ISBLANK(A50),"",C50)</f>
-        <v> POL_mortar_equipment_2_short:9 "Mörser 120mm wz. 40"</v>
+        <v>POL_mortar_equipment_2_short:9 "Mörser 120mm wz. 40"</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="str">
         <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">IF(ISBLANK(A51),"",C51)</f>
@@ -1758,11 +1762,11 @@
       </c>
       <c r="C52" s="1" t="str">
         <f aca="false">A52 &amp;" " &amp;"""" &amp;B52 &amp;""""</f>
-        <v> #POL_infantrygun_equipment_0:9 "75mm Kanone wz. 1902/26"</v>
+        <v>#POL_infantrygun_equipment_0:9 "75mm Kanone wz. 1902/26"</v>
       </c>
       <c r="D52" s="1" t="str">
         <f aca="false">IF(ISBLANK(A52),"",C52)</f>
-        <v> #POL_infantrygun_equipment_0:9 "75mm Kanone wz. 1902/26"</v>
+        <v>#POL_infantrygun_equipment_0:9 "75mm Kanone wz. 1902/26"</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,17 +1778,17 @@
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v> POL_infantrygun_equipment_0_short:9 "75mm Kanone wz. 1902/26"</v>
+        <v>POL_infantrygun_equipment_0_short:9 "75mm Kanone wz. 1902/26"</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
-        <v> POL_infantrygun_equipment_0_short:9 "75mm Kanone wz. 1902/26"</v>
+        <v>POL_infantrygun_equipment_0_short:9 "75mm Kanone wz. 1902/26"</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="1" t="str">
         <f aca="false">A54 &amp;" " &amp;"""" &amp;B54 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D54" s="1" t="str">
         <f aca="false">IF(ISBLANK(A54),"",C54)</f>
@@ -1800,11 +1804,11 @@
       </c>
       <c r="C55" s="1" t="str">
         <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v> POL_motorized_equipment_2:9 "Polnisch-Fiat 621 Infanterie-LKW"</v>
+        <v>POL_motorized_equipment_2:9 "Polnisch-Fiat 621 Infanterie-LKW"</v>
       </c>
       <c r="D55" s="1" t="str">
         <f aca="false">IF(ISBLANK(A55),"",C55)</f>
-        <v> POL_motorized_equipment_2:9 "Polnisch-Fiat 621 Infanterie-LKW"</v>
+        <v>POL_motorized_equipment_2:9 "Polnisch-Fiat 621 Infanterie-LKW"</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,11 +1820,11 @@
       </c>
       <c r="C56" s="1" t="str">
         <f aca="false">A56 &amp;" " &amp;"""" &amp;B56 &amp;""""</f>
-        <v> POL_motorized_equipment_2_short:9 "Polnisch-Fiat 621"</v>
+        <v>POL_motorized_equipment_2_short:9 "Polnisch-Fiat 621"</v>
       </c>
       <c r="D56" s="1" t="str">
         <f aca="false">IF(ISBLANK(A56),"",C56)</f>
-        <v> POL_motorized_equipment_2_short:9 "Polnisch-Fiat 621"</v>
+        <v>POL_motorized_equipment_2_short:9 "Polnisch-Fiat 621"</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,11 +1836,11 @@
       </c>
       <c r="C57" s="1" t="str">
         <f aca="false">A57 &amp;" " &amp;"""" &amp;B57 &amp;""""</f>
-        <v> POL_motorized_equipment_2_desc:9 "Die Motorisierung der Infanterie ist der zweite Schritt zur Mechanisierung einer Armee. Zivile Lastkraftwagen lassen sich leicht an militärische Zwecke wie den Transport von Soldaten, das Ziehen von Geschützen und den Transport von Ausrüstung und Nachschub anpassen. Dadurch wird die strategische Mobilität von Infanterieeinheiten, die ansonsten auf den Marsch angewiesen wären, erheblich gesteigert."</v>
+        <v>POL_motorized_equipment_2_desc:9 "Die Motorisierung der Infanterie ist der zweite Schritt zur Mechanisierung einer Armee. Zivile Lastkraftwagen lassen sich leicht an militärische Zwecke wie den Transport von Soldaten, das Ziehen von Geschützen und den Transport von Ausrüstung und Nachschub anpassen. Dadurch wird die strategische Mobilität von Infanterieeinheiten, die ansonsten auf den Marsch angewiesen wären, erheblich gesteigert."</v>
       </c>
       <c r="D57" s="1" t="str">
         <f aca="false">IF(ISBLANK(A57),"",C57)</f>
-        <v> POL_motorized_equipment_2_desc:9 "Die Motorisierung der Infanterie ist der zweite Schritt zur Mechanisierung einer Armee. Zivile Lastkraftwagen lassen sich leicht an militärische Zwecke wie den Transport von Soldaten, das Ziehen von Geschützen und den Transport von Ausrüstung und Nachschub anpassen. Dadurch wird die strategische Mobilität von Infanterieeinheiten, die ansonsten auf den Marsch angewiesen wären, erheblich gesteigert."</v>
+        <v>POL_motorized_equipment_2_desc:9 "Die Motorisierung der Infanterie ist der zweite Schritt zur Mechanisierung einer Armee. Zivile Lastkraftwagen lassen sich leicht an militärische Zwecke wie den Transport von Soldaten, das Ziehen von Geschützen und den Transport von Ausrüstung und Nachschub anpassen. Dadurch wird die strategische Mobilität von Infanterieeinheiten, die ansonsten auf den Marsch angewiesen wären, erheblich gesteigert."</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,11 +1852,11 @@
       </c>
       <c r="C58" s="1" t="str">
         <f aca="false">A58 &amp;" " &amp;"""" &amp;B58 &amp;""""</f>
-        <v> POL_motorized_equipment_1:9 "Infanterie-Lastwagen Ursus 303"</v>
+        <v>POL_motorized_equipment_1:9 "Infanterie-Lastwagen Ursus 303"</v>
       </c>
       <c r="D58" s="1" t="str">
         <f aca="false">IF(ISBLANK(A58),"",C58)</f>
-        <v> POL_motorized_equipment_1:9 "Infanterie-Lastwagen Ursus 303"</v>
+        <v>POL_motorized_equipment_1:9 "Infanterie-Lastwagen Ursus 303"</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,11 +1868,11 @@
       </c>
       <c r="C59" s="1" t="str">
         <f aca="false">A59 &amp;" " &amp;"""" &amp;B59 &amp;""""</f>
-        <v> POL_motorized_equipment_1_short:9 "Ursus 303"</v>
+        <v>POL_motorized_equipment_1_short:9 "Ursus 303"</v>
       </c>
       <c r="D59" s="1" t="str">
         <f aca="false">IF(ISBLANK(A59),"",C59)</f>
-        <v> POL_motorized_equipment_1_short:9 "Ursus 303"</v>
+        <v>POL_motorized_equipment_1_short:9 "Ursus 303"</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,17 +1884,17 @@
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v> POL_motorized_equipment_1_desc:9 "Die Motorisierung der Infanterie ist der zweite Schritt zur Mechanisierung einer Armee. Zivile Lastwagen lassen sich leicht für militärische Zwecke wie den Transport von Soldaten, das Ziehen von Geschützen und den Transport von Ausrüstung und Nachschub umrüsten. Dadurch wird die strategische Mobilität von Infanterieeinheiten, die ansonsten auf den Marsch angewiesen wären, erheblich gesteigert."</v>
+        <v>POL_motorized_equipment_1_desc:9 "Die Motorisierung der Infanterie ist der zweite Schritt zur Mechanisierung einer Armee. Zivile Lastwagen lassen sich leicht für militärische Zwecke wie den Transport von Soldaten, das Ziehen von Geschützen und den Transport von Ausrüstung und Nachschub umrüsten. Dadurch wird die strategische Mobilität von Infanterieeinheiten, die ansonsten auf den Marsch angewiesen wären, erheblich gesteigert."</v>
       </c>
       <c r="D60" s="1" t="str">
         <f aca="false">IF(ISBLANK(A60),"",C60)</f>
-        <v> POL_motorized_equipment_1_desc:9 "Die Motorisierung der Infanterie ist der zweite Schritt zur Mechanisierung einer Armee. Zivile Lastwagen lassen sich leicht für militärische Zwecke wie den Transport von Soldaten, das Ziehen von Geschützen und den Transport von Ausrüstung und Nachschub umrüsten. Dadurch wird die strategische Mobilität von Infanterieeinheiten, die ansonsten auf den Marsch angewiesen wären, erheblich gesteigert."</v>
+        <v>POL_motorized_equipment_1_desc:9 "Die Motorisierung der Infanterie ist der zweite Schritt zur Mechanisierung einer Armee. Zivile Lastwagen lassen sich leicht für militärische Zwecke wie den Transport von Soldaten, das Ziehen von Geschützen und den Transport von Ausrüstung und Nachschub umrüsten. Dadurch wird die strategische Mobilität von Infanterieeinheiten, die ansonsten auf den Marsch angewiesen wären, erheblich gesteigert."</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="1" t="str">
         <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D61" s="1" t="str">
         <f aca="false">IF(ISBLANK(A61),"",C61)</f>
@@ -1906,11 +1910,11 @@
       </c>
       <c r="C62" s="1" t="str">
         <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v> POL_mechanized_equipment_1:9 "PZInż 222 Mechanisierte Ausrüstung"</v>
+        <v>POL_mechanized_equipment_1:9 "PZInż 222 Mechanisierte Ausrüstung"</v>
       </c>
       <c r="D62" s="1" t="str">
         <f aca="false">IF(ISBLANK(A62),"",C62)</f>
-        <v> POL_mechanized_equipment_1:9 "PZInż 222 Mechanisierte Ausrüstung"</v>
+        <v>POL_mechanized_equipment_1:9 "PZInż 222 Mechanisierte Ausrüstung"</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,11 +1926,11 @@
       </c>
       <c r="C63" s="1" t="str">
         <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v> POL_mechanized_equipment_1_short:9 "PZInż 222"</v>
+        <v>POL_mechanized_equipment_1_short:9 "PZInż 222"</v>
       </c>
       <c r="D63" s="1" t="str">
         <f aca="false">IF(ISBLANK(A63),"",C63)</f>
-        <v> POL_mechanized_equipment_1_short:9 "PZInż 222"</v>
+        <v>POL_mechanized_equipment_1_short:9 "PZInż 222"</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,11 +1942,11 @@
       </c>
       <c r="C64" s="1" t="str">
         <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v> POL_mechanized_equipment_2:9 "PZInż 342 Mechanisierte Ausrüstung"</v>
+        <v>POL_mechanized_equipment_2:9 "PZInż 342 Mechanisierte Ausrüstung"</v>
       </c>
       <c r="D64" s="1" t="str">
         <f aca="false">IF(ISBLANK(A64),"",C64)</f>
-        <v> POL_mechanized_equipment_2:9 "PZInż 342 Mechanisierte Ausrüstung"</v>
+        <v>POL_mechanized_equipment_2:9 "PZInż 342 Mechanisierte Ausrüstung"</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,11 +1958,11 @@
       </c>
       <c r="C65" s="1" t="str">
         <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v> POL_mechanized_equipment_2_short:9 "PZInż 342"</v>
+        <v>POL_mechanized_equipment_2_short:9 "PZInż 342"</v>
       </c>
       <c r="D65" s="1" t="str">
         <f aca="false">IF(ISBLANK(A65),"",C65)</f>
-        <v> POL_mechanized_equipment_2_short:9 "PZInż 342"</v>
+        <v>POL_mechanized_equipment_2_short:9 "PZInż 342"</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,11 +1974,11 @@
       </c>
       <c r="C66" s="1" t="str">
         <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v> POL_mechanized_equipment_3:9 "Sochaczewski-Träger Mechanisierte Ausrüstung"</v>
+        <v>POL_mechanized_equipment_3:9 "Sochaczewski-Träger Mechanisierte Ausrüstung"</v>
       </c>
       <c r="D66" s="1" t="str">
         <f aca="false">IF(ISBLANK(A66),"",C66)</f>
-        <v> POL_mechanized_equipment_3:9 "Sochaczewski-Träger Mechanisierte Ausrüstung"</v>
+        <v>POL_mechanized_equipment_3:9 "Sochaczewski-Träger Mechanisierte Ausrüstung"</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1986,17 +1990,17 @@
       </c>
       <c r="C67" s="1" t="str">
         <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v> POL_mechanized_equipment_3_short:9 "Sochaczewski-Träger"</v>
+        <v>POL_mechanized_equipment_3_short:9 "Sochaczewski-Träger"</v>
       </c>
       <c r="D67" s="1" t="str">
         <f aca="false">IF(ISBLANK(A67),"",C67)</f>
-        <v> POL_mechanized_equipment_3_short:9 "Sochaczewski-Träger"</v>
+        <v>POL_mechanized_equipment_3_short:9 "Sochaczewski-Träger"</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="1" t="str">
         <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D68" s="1" t="str">
         <f aca="false">IF(ISBLANK(A68),"",C68)</f>
@@ -2012,11 +2016,11 @@
       </c>
       <c r="C69" s="1" t="str">
         <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v> POL_mechanized_hmg_0:9 "PZInż 222 mit ckm wz. 30a Mech-MG"</v>
+        <v>POL_mechanized_hmg_0:9 "PZInż 222 mit ckm wz. 30a Mech-MG"</v>
       </c>
       <c r="D69" s="1" t="str">
         <f aca="false">IF(ISBLANK(A69),"",C69)</f>
-        <v> POL_mechanized_hmg_0:9 "PZInż 222 mit ckm wz. 30a Mech-MG"</v>
+        <v>POL_mechanized_hmg_0:9 "PZInż 222 mit ckm wz. 30a Mech-MG"</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,11 +2032,11 @@
       </c>
       <c r="C70" s="1" t="str">
         <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v> POL_mechanized_hmg_0_short:9 "PZInż 222 mit ckm wz. 30a"</v>
+        <v>POL_mechanized_hmg_0_short:9 "PZInż 222 mit ckm wz. 30a"</v>
       </c>
       <c r="D70" s="1" t="str">
         <f aca="false">IF(ISBLANK(A70),"",C70)</f>
-        <v> POL_mechanized_hmg_0_short:9 "PZInż 222 mit ckm wz. 30a"</v>
+        <v>POL_mechanized_hmg_0_short:9 "PZInż 222 mit ckm wz. 30a"</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,11 +2048,11 @@
       </c>
       <c r="C71" s="1" t="str">
         <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v> POL_mechanized_mortar_0:9 "PZInż 222 mit 81mm Mörser wz. 31 Mech-Mortar"</v>
+        <v>POL_mechanized_mortar_0:9 "PZInż 222 mit 81mm Mörser wz. 31 Mech-Mortar"</v>
       </c>
       <c r="D71" s="1" t="str">
         <f aca="false">IF(ISBLANK(A71),"",C71)</f>
-        <v> POL_mechanized_mortar_0:9 "PZInż 222 mit 81mm Mörser wz. 31 Mech-Mortar"</v>
+        <v>POL_mechanized_mortar_0:9 "PZInż 222 mit 81mm Mörser wz. 31 Mech-Mortar"</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,11 +2064,11 @@
       </c>
       <c r="C72" s="1" t="str">
         <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v> POL_mechanized_mortar_0_short:9 "PZInż 222 mit 81mm Mörser wz. 31"</v>
+        <v>POL_mechanized_mortar_0_short:9 "PZInż 222 mit 81mm Mörser wz. 31"</v>
       </c>
       <c r="D72" s="1" t="str">
         <f aca="false">IF(ISBLANK(A72),"",C72)</f>
-        <v> POL_mechanized_mortar_0_short:9 "PZInż 222 mit 81mm Mörser wz. 31"</v>
+        <v>POL_mechanized_mortar_0_short:9 "PZInż 222 mit 81mm Mörser wz. 31"</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,11 +2080,11 @@
       </c>
       <c r="C73" s="1" t="str">
         <f aca="false">A73 &amp;" " &amp;"""" &amp;B73 &amp;""""</f>
-        <v> POL_mechanized_at_0:9 "PZInż 222 mit Panzerkanone wz. 36 Mech-AT"</v>
+        <v>POL_mechanized_at_0:9 "PZInż 222 mit Panzerkanone wz. 36 Mech-AT"</v>
       </c>
       <c r="D73" s="1" t="str">
         <f aca="false">IF(ISBLANK(A73),"",C73)</f>
-        <v> POL_mechanized_at_0:9 "PZInż 222 mit Panzerkanone wz. 36 Mech-AT"</v>
+        <v>POL_mechanized_at_0:9 "PZInż 222 mit Panzerkanone wz. 36 Mech-AT"</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,11 +2096,11 @@
       </c>
       <c r="C74" s="1" t="str">
         <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v> POL_mechanized_at_0_short:9 "PZInż 222 mit Panzerkanone Wz. 36"</v>
+        <v>POL_mechanized_at_0_short:9 "PZInż 222 mit Panzerkanone Wz. 36"</v>
       </c>
       <c r="D74" s="1" t="str">
         <f aca="false">IF(ISBLANK(A74),"",C74)</f>
-        <v> POL_mechanized_at_0_short:9 "PZInż 222 mit Panzerkanone Wz. 36"</v>
+        <v>POL_mechanized_at_0_short:9 "PZInż 222 mit Panzerkanone Wz. 36"</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,11 +2112,11 @@
       </c>
       <c r="C75" s="1" t="str">
         <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v> POL_mechanized_aa_0:9 "PZInż 222 mit Grundstückskanone wz. 36 Mech-AA"</v>
+        <v>POL_mechanized_aa_0:9 "PZInż 222 mit Grundstückskanone wz. 36 Mech-AA"</v>
       </c>
       <c r="D75" s="1" t="str">
         <f aca="false">IF(ISBLANK(A75),"",C75)</f>
-        <v> POL_mechanized_aa_0:9 "PZInż 222 mit Grundstückskanone wz. 36 Mech-AA"</v>
+        <v>POL_mechanized_aa_0:9 "PZInż 222 mit Grundstückskanone wz. 36 Mech-AA"</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,17 +2128,17 @@
       </c>
       <c r="C76" s="1" t="str">
         <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v> POL_mechanized_aa_0_short:9 "PZInż 222 mit Geschütz wz. 36 Mech-AA"</v>
+        <v>POL_mechanized_aa_0_short:9 "PZInż 222 mit Geschütz wz. 36 Mech-AA"</v>
       </c>
       <c r="D76" s="1" t="str">
         <f aca="false">IF(ISBLANK(A76),"",C76)</f>
-        <v> POL_mechanized_aa_0_short:9 "PZInż 222 mit Geschütz wz. 36 Mech-AA"</v>
+        <v>POL_mechanized_aa_0_short:9 "PZInż 222 mit Geschütz wz. 36 Mech-AA"</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="1" t="str">
         <f aca="false">A77 &amp;" " &amp;"""" &amp;B77 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D77" s="1" t="str">
         <f aca="false">IF(ISBLANK(A77),"",C77)</f>
@@ -2150,11 +2154,11 @@
       </c>
       <c r="C78" s="1" t="str">
         <f aca="false">A78 &amp;" " &amp;"""" &amp;B78 &amp;""""</f>
-        <v> #POL_mechanized_at_0:9 "TKW 2 Mech-AT"</v>
+        <v>#POL_mechanized_at_0:9 "TKW 2 Mech-AT"</v>
       </c>
       <c r="D78" s="1" t="str">
         <f aca="false">IF(ISBLANK(A78),"",C78)</f>
-        <v> #POL_mechanized_at_0:9 "TKW 2 Mech-AT"</v>
+        <v>#POL_mechanized_at_0:9 "TKW 2 Mech-AT"</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,11 +2170,11 @@
       </c>
       <c r="C79" s="1" t="str">
         <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v> #POL_mechanized_at_0_short:9 "TKW 2"</v>
+        <v>#POL_mechanized_at_0_short:9 "TKW 2"</v>
       </c>
       <c r="D79" s="1" t="str">
         <f aca="false">IF(ISBLANK(A79),"",C79)</f>
-        <v> #POL_mechanized_at_0_short:9 "TKW 2"</v>
+        <v>#POL_mechanized_at_0_short:9 "TKW 2"</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,11 +2186,11 @@
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v> #POL_mechanized_aa_0:9 "Humber Mark IA Mech-AA"</v>
+        <v>#POL_mechanized_aa_0:9 "Humber Mark IA Mech-AA"</v>
       </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IF(ISBLANK(A80),"",C80)</f>
-        <v> #POL_mechanized_aa_0:9 "Humber Mark IA Mech-AA"</v>
+        <v>#POL_mechanized_aa_0:9 "Humber Mark IA Mech-AA"</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,11 +2202,11 @@
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v> #POL_mechanized_aa_0_short:9 "Humber Mark IA"</v>
+        <v>#POL_mechanized_aa_0_short:9 "Humber Mark IA"</v>
       </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
-        <v> #POL_mechanized_aa_0_short:9 "Humber Mark IA"</v>
+        <v>#POL_mechanized_aa_0_short:9 "Humber Mark IA"</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,11 +2218,11 @@
       </c>
       <c r="C82" s="1" t="str">
         <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v> #POL_mechanized_hmg_0:9 "TKW 1 Mech-MG"</v>
+        <v>#POL_mechanized_hmg_0:9 "TKW 1 Mech-MG"</v>
       </c>
       <c r="D82" s="1" t="str">
         <f aca="false">IF(ISBLANK(A82),"",C82)</f>
-        <v> #POL_mechanized_hmg_0:9 "TKW 1 Mech-MG"</v>
+        <v>#POL_mechanized_hmg_0:9 "TKW 1 Mech-MG"</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2230,11 +2234,11 @@
       </c>
       <c r="C83" s="1" t="str">
         <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
-        <v> #POL_mechanized_hmg_0_short:9 "TKW 1"</v>
+        <v>#POL_mechanized_hmg_0_short:9 "TKW 1"</v>
       </c>
       <c r="D83" s="1" t="str">
         <f aca="false">IF(ISBLANK(A83),"",C83)</f>
-        <v> #POL_mechanized_hmg_0_short:9 "TKW 1"</v>
+        <v>#POL_mechanized_hmg_0_short:9 "TKW 1"</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,11 +2250,11 @@
       </c>
       <c r="C84" s="1" t="str">
         <f aca="false">A84 &amp;" " &amp;"""" &amp;B84 &amp;""""</f>
-        <v> #POL_mechanized_mortar_0:9 "TKD Mech-Mortar"</v>
+        <v>#POL_mechanized_mortar_0:9 "TKD Mech-Mortar"</v>
       </c>
       <c r="D84" s="1" t="str">
         <f aca="false">IF(ISBLANK(A84),"",C84)</f>
-        <v> #POL_mechanized_mortar_0:9 "TKD Mech-Mortar"</v>
+        <v>#POL_mechanized_mortar_0:9 "TKD Mech-Mortar"</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,17 +2266,17 @@
       </c>
       <c r="C85" s="1" t="str">
         <f aca="false">A85 &amp;" " &amp;"""" &amp;B85 &amp;""""</f>
-        <v> #POL_mechanized_mortar_0_short:9 "TKD"</v>
+        <v>#POL_mechanized_mortar_0_short:9 "TKD"</v>
       </c>
       <c r="D85" s="1" t="str">
         <f aca="false">IF(ISBLANK(A85),"",C85)</f>
-        <v> #POL_mechanized_mortar_0_short:9 "TKD"</v>
+        <v>#POL_mechanized_mortar_0_short:9 "TKD"</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="1" t="str">
         <f aca="false">A86 &amp;" " &amp;"""" &amp;B86 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D86" s="1" t="str">
         <f aca="false">IF(ISBLANK(A86),"",C86)</f>
@@ -2288,11 +2292,11 @@
       </c>
       <c r="C87" s="1" t="str">
         <f aca="false">A87 &amp;" " &amp;"""" &amp;B87 &amp;""""</f>
-        <v> POL_recon_mot_equipment_0:9 "Sokól 600"</v>
+        <v>POL_recon_mot_equipment_0:9 "Sokól 600"</v>
       </c>
       <c r="D87" s="1" t="str">
         <f aca="false">IF(ISBLANK(A87),"",C87)</f>
-        <v> POL_recon_mot_equipment_0:9 "Sokól 600"</v>
+        <v>POL_recon_mot_equipment_0:9 "Sokól 600"</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,17 +2308,17 @@
       </c>
       <c r="C88" s="1" t="str">
         <f aca="false">A88 &amp;" " &amp;"""" &amp;B88 &amp;""""</f>
-        <v> POL_recon_mot_equipment_0_short:9 "Sokól 600"</v>
+        <v>POL_recon_mot_equipment_0_short:9 "Sokól 600"</v>
       </c>
       <c r="D88" s="1" t="str">
         <f aca="false">IF(ISBLANK(A88),"",C88)</f>
-        <v> POL_recon_mot_equipment_0_short:9 "Sokól 600"</v>
+        <v>POL_recon_mot_equipment_0_short:9 "Sokól 600"</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="1" t="str">
         <f aca="false">A89 &amp;" " &amp;"""" &amp;B89 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D89" s="1" t="str">
         <f aca="false">IF(ISBLANK(A89),"",C89)</f>
@@ -2330,11 +2334,11 @@
       </c>
       <c r="C90" s="1" t="str">
         <f aca="false">A90 &amp;" " &amp;"""" &amp;B90 &amp;""""</f>
-        <v> POL_artytractor_equipment_0:9 "C7P Artillerie-Zugmaschine"</v>
+        <v>POL_artytractor_equipment_0:9 "C7P Artillerie-Zugmaschine"</v>
       </c>
       <c r="D90" s="1" t="str">
         <f aca="false">IF(ISBLANK(A90),"",C90)</f>
-        <v> POL_artytractor_equipment_0:9 "C7P Artillerie-Zugmaschine"</v>
+        <v>POL_artytractor_equipment_0:9 "C7P Artillerie-Zugmaschine"</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,11 +2350,11 @@
       </c>
       <c r="C91" s="1" t="str">
         <f aca="false">A91 &amp;" " &amp;"""" &amp;B91 &amp;""""</f>
-        <v> POL_artytractor_equipment_0_short:9 "C7P"</v>
+        <v>POL_artytractor_equipment_0_short:9 "C7P"</v>
       </c>
       <c r="D91" s="1" t="str">
         <f aca="false">IF(ISBLANK(A91),"",C91)</f>
-        <v> POL_artytractor_equipment_0_short:9 "C7P"</v>
+        <v>POL_artytractor_equipment_0_short:9 "C7P"</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,11 +2366,11 @@
       </c>
       <c r="C92" s="1" t="str">
         <f aca="false">A92 &amp;" " &amp;"""" &amp;B92 &amp;""""</f>
-        <v> POL_artytractor_equipment_0_desc:9 "Große Zugmaschinen und Raupenfahrzeuge für den Transport von sehr schwerem Gerät wie z. B. schwerer Artillerie"</v>
+        <v>POL_artytractor_equipment_0_desc:9 "Große Zugmaschinen und Raupenfahrzeuge für den Transport von sehr schwerem Gerät wie z. B. schwerer Artillerie"</v>
       </c>
       <c r="D92" s="1" t="str">
         <f aca="false">IF(ISBLANK(A92),"",C92)</f>
-        <v> POL_artytractor_equipment_0_desc:9 "Große Zugmaschinen und Raupenfahrzeuge für den Transport von sehr schwerem Gerät wie z. B. schwerer Artillerie"</v>
+        <v>POL_artytractor_equipment_0_desc:9 "Große Zugmaschinen und Raupenfahrzeuge für den Transport von sehr schwerem Gerät wie z. B. schwerer Artillerie"</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,11 +2382,11 @@
       </c>
       <c r="C93" s="1" t="str">
         <f aca="false">A93 &amp;" " &amp;"""" &amp;B93 &amp;""""</f>
-        <v> POL_artytruck_equipment_0:9 "C2P Traktor Transport"</v>
+        <v>POL_artytruck_equipment_0:9 "C2P Traktor Transport"</v>
       </c>
       <c r="D93" s="1" t="str">
         <f aca="false">IF(ISBLANK(A93),"",C93)</f>
-        <v> POL_artytruck_equipment_0:9 "C2P Traktor Transport"</v>
+        <v>POL_artytruck_equipment_0:9 "C2P Traktor Transport"</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,17 +2398,17 @@
       </c>
       <c r="C94" s="1" t="str">
         <f aca="false">A94 &amp;" " &amp;"""" &amp;B94 &amp;""""</f>
-        <v> POL_artytruck_equipment_0_short:9 "C2P"</v>
+        <v>POL_artytruck_equipment_0_short:9 "C2P"</v>
       </c>
       <c r="D94" s="1" t="str">
         <f aca="false">IF(ISBLANK(A94),"",C94)</f>
-        <v> POL_artytruck_equipment_0_short:9 "C2P"</v>
+        <v>POL_artytruck_equipment_0_short:9 "C2P"</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="1" t="str">
         <f aca="false">A95 &amp;" " &amp;"""" &amp;B95 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D95" s="1" t="str">
         <f aca="false">IF(ISBLANK(A95),"",C95)</f>
@@ -2420,11 +2424,11 @@
       </c>
       <c r="C96" s="1" t="str">
         <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
-        <v> POL_artillery_equipment_0:9 "75mm Kanone wz. 1897"</v>
+        <v>POL_artillery_equipment_0:9 "75mm Kanone wz. 1897"</v>
       </c>
       <c r="D96" s="1" t="str">
         <f aca="false">IF(ISBLANK(A96),"",C96)</f>
-        <v> POL_artillery_equipment_0:9 "75mm Kanone wz. 1897"</v>
+        <v>POL_artillery_equipment_0:9 "75mm Kanone wz. 1897"</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,11 +2440,11 @@
       </c>
       <c r="C97" s="1" t="str">
         <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
-        <v> POL_artillery_equipment_0_short:9 "75mm Kanone wz. 1897"</v>
+        <v>POL_artillery_equipment_0_short:9 "75mm Kanone wz. 1897"</v>
       </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IF(ISBLANK(A97),"",C97)</f>
-        <v> POL_artillery_equipment_0_short:9 "75mm Kanone wz. 1897"</v>
+        <v>POL_artillery_equipment_0_short:9 "75mm Kanone wz. 1897"</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,11 +2456,11 @@
       </c>
       <c r="C98" s="1" t="str">
         <f aca="false">A98 &amp;" " &amp;"""" &amp;B98 &amp;""""</f>
-        <v> POL_artillery_equipment_1:9 "75mm Feldkanone wz. 38 ST"</v>
+        <v>POL_artillery_equipment_1:9 "75mm Feldkanone wz. 38 ST"</v>
       </c>
       <c r="D98" s="1" t="str">
         <f aca="false">IF(ISBLANK(A98),"",C98)</f>
-        <v> POL_artillery_equipment_1:9 "75mm Feldkanone wz. 38 ST"</v>
+        <v>POL_artillery_equipment_1:9 "75mm Feldkanone wz. 38 ST"</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2468,17 +2472,17 @@
       </c>
       <c r="C99" s="1" t="str">
         <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
-        <v> POL_artillery_equipment_1_short:9 "75mm Feldkanone wz. 38"</v>
+        <v>POL_artillery_equipment_1_short:9 "75mm Feldkanone wz. 38"</v>
       </c>
       <c r="D99" s="1" t="str">
         <f aca="false">IF(ISBLANK(A99),"",C99)</f>
-        <v> POL_artillery_equipment_1_short:9 "75mm Feldkanone wz. 38"</v>
+        <v>POL_artillery_equipment_1_short:9 "75mm Feldkanone wz. 38"</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="1" t="str">
         <f aca="false">A100 &amp;" " &amp;"""" &amp;B100 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D100" s="1" t="str">
         <f aca="false">IF(ISBLANK(A100),"",C100)</f>
@@ -2494,11 +2498,11 @@
       </c>
       <c r="C101" s="1" t="str">
         <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
-        <v> POL_medartillery_equipment_0:9 "105mm Langstrecken-Feldkanone wz. 29"</v>
+        <v>POL_medartillery_equipment_0:9 "105mm Langstrecken-Feldkanone wz. 29"</v>
       </c>
       <c r="D101" s="1" t="str">
         <f aca="false">IF(ISBLANK(A101),"",C101)</f>
-        <v> POL_medartillery_equipment_0:9 "105mm Langstrecken-Feldkanone wz. 29"</v>
+        <v>POL_medartillery_equipment_0:9 "105mm Langstrecken-Feldkanone wz. 29"</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,17 +2514,17 @@
       </c>
       <c r="C102" s="1" t="str">
         <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v> POL_medartillery_equipment_0_short:9 "105mm Feldkanone wz. 29"</v>
+        <v>POL_medartillery_equipment_0_short:9 "105mm Feldkanone wz. 29"</v>
       </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
-        <v> POL_medartillery_equipment_0_short:9 "105mm Feldkanone wz. 29"</v>
+        <v>POL_medartillery_equipment_0_short:9 "105mm Feldkanone wz. 29"</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="1" t="str">
         <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D103" s="1" t="str">
         <f aca="false">IF(ISBLANK(A103),"",C103)</f>
@@ -2536,11 +2540,11 @@
       </c>
       <c r="C104" s="1" t="str">
         <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v> POL_Hvartillery_equipment_0:9 "155mm Haubitze wz. 1917"</v>
+        <v>POL_Hvartillery_equipment_0:9 "155mm Haubitze wz. 1917"</v>
       </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
-        <v> POL_Hvartillery_equipment_0:9 "155mm Haubitze wz. 1917"</v>
+        <v>POL_Hvartillery_equipment_0:9 "155mm Haubitze wz. 1917"</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,11 +2556,11 @@
       </c>
       <c r="C105" s="1" t="str">
         <f aca="false">A105 &amp;" " &amp;"""" &amp;B105 &amp;""""</f>
-        <v> POL_Hvartillery_equipment_0_short:9 "155mm Haubitze wz. 1917"</v>
+        <v>POL_Hvartillery_equipment_0_short:9 "155mm Haubitze wz. 1917"</v>
       </c>
       <c r="D105" s="1" t="str">
         <f aca="false">IF(ISBLANK(A105),"",C105)</f>
-        <v> POL_Hvartillery_equipment_0_short:9 "155mm Haubitze wz. 1917"</v>
+        <v>POL_Hvartillery_equipment_0_short:9 "155mm Haubitze wz. 1917"</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,11 +2572,11 @@
       </c>
       <c r="C106" s="1" t="str">
         <f aca="false">A106 &amp;" " &amp;"""" &amp;B106 &amp;""""</f>
-        <v> POL_Hvartillery_equipment_1:9 "155mm Langstrecken-Kanone wz. 40"</v>
+        <v>POL_Hvartillery_equipment_1:9 "155mm Langstrecken-Kanone wz. 40"</v>
       </c>
       <c r="D106" s="1" t="str">
         <f aca="false">IF(ISBLANK(A106),"",C106)</f>
-        <v> POL_Hvartillery_equipment_1:9 "155mm Langstrecken-Kanone wz. 40"</v>
+        <v>POL_Hvartillery_equipment_1:9 "155mm Langstrecken-Kanone wz. 40"</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,17 +2588,17 @@
       </c>
       <c r="C107" s="1" t="str">
         <f aca="false">A107 &amp;" " &amp;"""" &amp;B107 &amp;""""</f>
-        <v> POL_Hvartillery_equipment_1_short:9 "155mm Kanone wz. 40"</v>
+        <v>POL_Hvartillery_equipment_1_short:9 "155mm Kanone wz. 40"</v>
       </c>
       <c r="D107" s="1" t="str">
         <f aca="false">IF(ISBLANK(A107),"",C107)</f>
-        <v> POL_Hvartillery_equipment_1_short:9 "155mm Kanone wz. 40"</v>
+        <v>POL_Hvartillery_equipment_1_short:9 "155mm Kanone wz. 40"</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="1" t="str">
         <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
@@ -2610,11 +2614,11 @@
       </c>
       <c r="C109" s="1" t="str">
         <f aca="false">A109 &amp;" " &amp;"""" &amp;B109 &amp;""""</f>
-        <v> POL_artillery_coastal:9 "152mm Kanone wz. 30"</v>
+        <v>POL_artillery_coastal:9 "152mm Kanone wz. 30"</v>
       </c>
       <c r="D109" s="1" t="str">
         <f aca="false">IF(ISBLANK(A109),"",C109)</f>
-        <v> POL_artillery_coastal:9 "152mm Kanone wz. 30"</v>
+        <v>POL_artillery_coastal:9 "152mm Kanone wz. 30"</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,17 +2630,17 @@
       </c>
       <c r="C110" s="1" t="str">
         <f aca="false">A110 &amp;" " &amp;"""" &amp;B110 &amp;""""</f>
-        <v> POL_artillery_coastal_short:9 "152mm Kanone wz. 30"</v>
+        <v>POL_artillery_coastal_short:9 "152mm Kanone wz. 30"</v>
       </c>
       <c r="D110" s="1" t="str">
         <f aca="false">IF(ISBLANK(A110),"",C110)</f>
-        <v> POL_artillery_coastal_short:9 "152mm Kanone wz. 30"</v>
+        <v>POL_artillery_coastal_short:9 "152mm Kanone wz. 30"</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="1" t="str">
         <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A111),"",C111)</f>
@@ -2652,11 +2656,11 @@
       </c>
       <c r="C112" s="1" t="str">
         <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
-        <v> POL_anti_tank_equipment_1:9 "37mm Panzerabwehrkanone wz. 36"</v>
+        <v>POL_anti_tank_equipment_1:9 "37mm Panzerabwehrkanone wz. 36"</v>
       </c>
       <c r="D112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A112),"",C112)</f>
-        <v> POL_anti_tank_equipment_1:9 "37mm Panzerabwehrkanone wz. 36"</v>
+        <v>POL_anti_tank_equipment_1:9 "37mm Panzerabwehrkanone wz. 36"</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,11 +2672,11 @@
       </c>
       <c r="C113" s="1" t="str">
         <f aca="false">A113 &amp;" " &amp;"""" &amp;B113 &amp;""""</f>
-        <v> POL_anti_tank_equipment_1_short:9 "37mm Panzerabwehrkanone wz. 36"</v>
+        <v>POL_anti_tank_equipment_1_short:9 "37mm Panzerabwehrkanone wz. 36"</v>
       </c>
       <c r="D113" s="1" t="str">
         <f aca="false">IF(ISBLANK(A113),"",C113)</f>
-        <v> POL_anti_tank_equipment_1_short:9 "37mm Panzerabwehrkanone wz. 36"</v>
+        <v>POL_anti_tank_equipment_1_short:9 "37mm Panzerabwehrkanone wz. 36"</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,11 +2688,11 @@
       </c>
       <c r="C114" s="1" t="str">
         <f aca="false">A114 &amp;" " &amp;"""" &amp;B114 &amp;""""</f>
-        <v> POL_anti_tank_equipment_2:9 "47mm Panzerabwehrkanone wz. 39"</v>
+        <v>POL_anti_tank_equipment_2:9 "47mm Panzerabwehrkanone wz. 39"</v>
       </c>
       <c r="D114" s="1" t="str">
         <f aca="false">IF(ISBLANK(A114),"",C114)</f>
-        <v> POL_anti_tank_equipment_2:9 "47mm Panzerabwehrkanone wz. 39"</v>
+        <v>POL_anti_tank_equipment_2:9 "47mm Panzerabwehrkanone wz. 39"</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,17 +2704,17 @@
       </c>
       <c r="C115" s="1" t="str">
         <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
-        <v> POL_anti_tank_equipment_2_short:9 "47mm Panzerabwehrkanone wz. 39"</v>
+        <v>POL_anti_tank_equipment_2_short:9 "47mm Panzerabwehrkanone wz. 39"</v>
       </c>
       <c r="D115" s="1" t="str">
         <f aca="false">IF(ISBLANK(A115),"",C115)</f>
-        <v> POL_anti_tank_equipment_2_short:9 "47mm Panzerabwehrkanone wz. 39"</v>
+        <v>POL_anti_tank_equipment_2_short:9 "47mm Panzerabwehrkanone wz. 39"</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="1" t="str">
         <f aca="false">A116 &amp;" " &amp;"""" &amp;B116 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D116" s="1" t="str">
         <f aca="false">IF(ISBLANK(A116),"",C116)</f>
@@ -2726,11 +2730,11 @@
       </c>
       <c r="C117" s="1" t="str">
         <f aca="false">A117 &amp;" " &amp;"""" &amp;B117 &amp;""""</f>
-        <v> POL_anti_air_equipment_1:9 "schwerstes Maschinengewehr wz.30"</v>
+        <v>POL_anti_air_equipment_1:9 "schwerstes Maschinengewehr wz.30"</v>
       </c>
       <c r="D117" s="1" t="str">
         <f aca="false">IF(ISBLANK(A117),"",C117)</f>
-        <v> POL_anti_air_equipment_1:9 "schwerstes Maschinengewehr wz.30"</v>
+        <v>POL_anti_air_equipment_1:9 "schwerstes Maschinengewehr wz.30"</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,11 +2746,11 @@
       </c>
       <c r="C118" s="1" t="str">
         <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
-        <v> POL_anti_air_equipment_1_short:9 "Nkm wz.30"</v>
+        <v>POL_anti_air_equipment_1_short:9 "Nkm wz.30"</v>
       </c>
       <c r="D118" s="1" t="str">
         <f aca="false">IF(ISBLANK(A118),"",C118)</f>
-        <v> POL_anti_air_equipment_1_short:9 "Nkm wz.30"</v>
+        <v>POL_anti_air_equipment_1_short:9 "Nkm wz.30"</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,11 +2762,11 @@
       </c>
       <c r="C119" s="1" t="str">
         <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
-        <v> POL_anti_air_equipment_3:9 "40mm Flugabwehrkanone wz. 36"</v>
+        <v>POL_anti_air_equipment_3:9 "40mm Flugabwehrkanone wz. 36"</v>
       </c>
       <c r="D119" s="1" t="str">
         <f aca="false">IF(ISBLANK(A119),"",C119)</f>
-        <v> POL_anti_air_equipment_3:9 "40mm Flugabwehrkanone wz. 36"</v>
+        <v>POL_anti_air_equipment_3:9 "40mm Flugabwehrkanone wz. 36"</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,17 +2778,17 @@
       </c>
       <c r="C120" s="1" t="str">
         <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
-        <v> POL_anti_air_equipment_3_short:9 "40mm Flugabwehrkanone wz. 36"</v>
+        <v>POL_anti_air_equipment_3_short:9 "40mm Flugabwehrkanone wz. 36"</v>
       </c>
       <c r="D120" s="1" t="str">
         <f aca="false">IF(ISBLANK(A120),"",C120)</f>
-        <v> POL_anti_air_equipment_3_short:9 "40mm Flugabwehrkanone wz. 36"</v>
+        <v>POL_anti_air_equipment_3_short:9 "40mm Flugabwehrkanone wz. 36"</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="1" t="str">
         <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IF(ISBLANK(A121),"",C121)</f>
@@ -2800,11 +2804,11 @@
       </c>
       <c r="C122" s="1" t="str">
         <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
-        <v> POL_HVanti_air_equipment_2:9 "75mm Flugabwehrkanone wz. 39"</v>
+        <v>POL_HVanti_air_equipment_2:9 "75mm Flugabwehrkanone wz. 39"</v>
       </c>
       <c r="D122" s="1" t="str">
         <f aca="false">IF(ISBLANK(A122),"",C122)</f>
-        <v> POL_HVanti_air_equipment_2:9 "75mm Flugabwehrkanone wz. 39"</v>
+        <v>POL_HVanti_air_equipment_2:9 "75mm Flugabwehrkanone wz. 39"</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,17 +2820,17 @@
       </c>
       <c r="C123" s="1" t="str">
         <f aca="false">A123 &amp;" " &amp;"""" &amp;B123 &amp;""""</f>
-        <v> POL_HVanti_air_equipment_2_short:9 "75mm Flugabwehrkanone wz.39"</v>
+        <v>POL_HVanti_air_equipment_2_short:9 "75mm Flugabwehrkanone wz.39"</v>
       </c>
       <c r="D123" s="1" t="str">
         <f aca="false">IF(ISBLANK(A123),"",C123)</f>
-        <v> POL_HVanti_air_equipment_2_short:9 "75mm Flugabwehrkanone wz.39"</v>
+        <v>POL_HVanti_air_equipment_2_short:9 "75mm Flugabwehrkanone wz.39"</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="1" t="str">
         <f aca="false">A124 &amp;" " &amp;"""" &amp;B124 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D124" s="1" t="str">
         <f aca="false">IF(ISBLANK(A124),"",C124)</f>
@@ -2842,11 +2846,11 @@
       </c>
       <c r="C125" s="1" t="str">
         <f aca="false">A125 &amp;" " &amp;"""" &amp;B125 &amp;""""</f>
-        <v> POL_spotter_planes_equipment_0:9 "LWS-3 Mewa Artilleriebeobachter"</v>
+        <v>POL_spotter_planes_equipment_0:9 "LWS-3 Mewa Artilleriebeobachter"</v>
       </c>
       <c r="D125" s="1" t="str">
         <f aca="false">IF(ISBLANK(A125),"",C125)</f>
-        <v> POL_spotter_planes_equipment_0:9 "LWS-3 Mewa Artilleriebeobachter"</v>
+        <v>POL_spotter_planes_equipment_0:9 "LWS-3 Mewa Artilleriebeobachter"</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,17 +2862,17 @@
       </c>
       <c r="C126" s="1" t="str">
         <f aca="false">A126 &amp;" " &amp;"""" &amp;B126 &amp;""""</f>
-        <v> POL_spotter_planes_equipment_0_short:9 "LWS-3 Mewa"</v>
+        <v>POL_spotter_planes_equipment_0_short:9 "LWS-3 Mewa"</v>
       </c>
       <c r="D126" s="1" t="str">
         <f aca="false">IF(ISBLANK(A126),"",C126)</f>
-        <v> POL_spotter_planes_equipment_0_short:9 "LWS-3 Mewa"</v>
+        <v>POL_spotter_planes_equipment_0_short:9 "LWS-3 Mewa"</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="1" t="str">
         <f aca="false">A127 &amp;" " &amp;"""" &amp;B127 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D127" s="1" t="str">
         <f aca="false">IF(ISBLANK(A127),"",C127)</f>
@@ -2884,11 +2888,11 @@
       </c>
       <c r="C128" s="1" t="str">
         <f aca="false">A128 &amp;" " &amp;"""" &amp;B128 &amp;""""</f>
-        <v> POL_tankette_equipment_0:9 "TK2 Panzerkampfwagen"</v>
+        <v>POL_tankette_equipment_0:9 "TK2 Panzerkampfwagen"</v>
       </c>
       <c r="D128" s="1" t="str">
         <f aca="false">IF(ISBLANK(A128),"",C128)</f>
-        <v> POL_tankette_equipment_0:9 "TK2 Panzerkampfwagen"</v>
+        <v>POL_tankette_equipment_0:9 "TK2 Panzerkampfwagen"</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,11 +2904,11 @@
       </c>
       <c r="C129" s="1" t="str">
         <f aca="false">A129 &amp;" " &amp;"""" &amp;B129 &amp;""""</f>
-        <v> POL_tankette_equipment_0_short:9 "TK2"</v>
+        <v>POL_tankette_equipment_0_short:9 "TK2"</v>
       </c>
       <c r="D129" s="1" t="str">
         <f aca="false">IF(ISBLANK(A129),"",C129)</f>
-        <v> POL_tankette_equipment_0_short:9 "TK2"</v>
+        <v>POL_tankette_equipment_0_short:9 "TK2"</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,11 +2920,11 @@
       </c>
       <c r="C130" s="1" t="str">
         <f aca="false">A130 &amp;" " &amp;"""" &amp;B130 &amp;""""</f>
-        <v> POL_tankette_equipment_1:9 "TKF Panzerkampfwagen"</v>
+        <v>POL_tankette_equipment_1:9 "TKF Panzerkampfwagen"</v>
       </c>
       <c r="D130" s="1" t="str">
         <f aca="false">IF(ISBLANK(A130),"",C130)</f>
-        <v> POL_tankette_equipment_1:9 "TKF Panzerkampfwagen"</v>
+        <v>POL_tankette_equipment_1:9 "TKF Panzerkampfwagen"</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,11 +2936,11 @@
       </c>
       <c r="C131" s="1" t="str">
         <f aca="false">A131 &amp;" " &amp;"""" &amp;B131 &amp;""""</f>
-        <v> POL_tankette_equipment_1_short:9 "TKF"</v>
+        <v>POL_tankette_equipment_1_short:9 "TKF"</v>
       </c>
       <c r="D131" s="1" t="str">
         <f aca="false">IF(ISBLANK(A131),"",C131)</f>
-        <v> POL_tankette_equipment_1_short:9 "TKF"</v>
+        <v>POL_tankette_equipment_1_short:9 "TKF"</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2948,11 +2952,11 @@
       </c>
       <c r="C132" s="1" t="str">
         <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
-        <v> POL_tankette_equipment_2:9 "TK3 Tankwagen"</v>
+        <v>POL_tankette_equipment_2:9 "TK3 Tankwagen"</v>
       </c>
       <c r="D132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A132),"",C132)</f>
-        <v> POL_tankette_equipment_2:9 "TK3 Tankwagen"</v>
+        <v>POL_tankette_equipment_2:9 "TK3 Tankwagen"</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,11 +2968,11 @@
       </c>
       <c r="C133" s="1" t="str">
         <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v> POL_tankette_equipment_2_short:9 "TK3"</v>
+        <v>POL_tankette_equipment_2_short:9 "TK3"</v>
       </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
-        <v> POL_tankette_equipment_2_short:9 "TK3"</v>
+        <v>POL_tankette_equipment_2_short:9 "TK3"</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,11 +2984,11 @@
       </c>
       <c r="C134" s="1" t="str">
         <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
-        <v> POL_tankette_equipment_3:9 "TKS Tankette"</v>
+        <v>POL_tankette_equipment_3:9 "TKS Tankette"</v>
       </c>
       <c r="D134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A134),"",C134)</f>
-        <v> POL_tankette_equipment_3:9 "TKS Tankette"</v>
+        <v>POL_tankette_equipment_3:9 "TKS Tankette"</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,17 +3000,17 @@
       </c>
       <c r="C135" s="1" t="str">
         <f aca="false">A135 &amp;" " &amp;"""" &amp;B135 &amp;""""</f>
-        <v> POL_tankette_equipment_3_short:9 "TKS"</v>
+        <v>POL_tankette_equipment_3_short:9 "TKS"</v>
       </c>
       <c r="D135" s="1" t="str">
         <f aca="false">IF(ISBLANK(A135),"",C135)</f>
-        <v> POL_tankette_equipment_3_short:9 "TKS"</v>
+        <v>POL_tankette_equipment_3_short:9 "TKS"</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="1" t="str">
         <f aca="false">A136 &amp;" " &amp;"""" &amp;B136 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D136" s="1" t="str">
         <f aca="false">IF(ISBLANK(A136),"",C136)</f>
@@ -3022,11 +3026,11 @@
       </c>
       <c r="C137" s="1" t="str">
         <f aca="false">A137 &amp;" " &amp;"""" &amp;B137 &amp;""""</f>
-        <v> POL_motorized_AC_equipment_06:9 "Ford FT-B"</v>
+        <v>POL_motorized_AC_equipment_06:9 "Ford FT-B"</v>
       </c>
       <c r="D137" s="1" t="str">
         <f aca="false">IF(ISBLANK(A137),"",C137)</f>
-        <v> POL_motorized_AC_equipment_06:9 "Ford FT-B"</v>
+        <v>POL_motorized_AC_equipment_06:9 "Ford FT-B"</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,11 +3042,11 @@
       </c>
       <c r="C138" s="1" t="str">
         <f aca="false">A138 &amp;" " &amp;"""" &amp;B138 &amp;""""</f>
-        <v> POL_motorized_AC_equipment_06_short:9 "Ford FT-B"</v>
+        <v>POL_motorized_AC_equipment_06_short:9 "Ford FT-B"</v>
       </c>
       <c r="D138" s="1" t="str">
         <f aca="false">IF(ISBLANK(A138),"",C138)</f>
-        <v> POL_motorized_AC_equipment_06_short:9 "Ford FT-B"</v>
+        <v>POL_motorized_AC_equipment_06_short:9 "Ford FT-B"</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,11 +3058,11 @@
       </c>
       <c r="C139" s="1" t="str">
         <f aca="false">A139 &amp;" " &amp;"""" &amp;B139 &amp;""""</f>
-        <v> POL_motorized_AC_equipment_07:9 "Panzerwagen Wz. 28"</v>
+        <v>POL_motorized_AC_equipment_07:9 "Panzerwagen Wz. 28"</v>
       </c>
       <c r="D139" s="1" t="str">
         <f aca="false">IF(ISBLANK(A139),"",C139)</f>
-        <v> POL_motorized_AC_equipment_07:9 "Panzerwagen Wz. 28"</v>
+        <v>POL_motorized_AC_equipment_07:9 "Panzerwagen Wz. 28"</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,11 +3074,11 @@
       </c>
       <c r="C140" s="1" t="str">
         <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
-        <v> POL_motorized_AC_equipment_07_short:9 "Panzerwagen wz. 28"</v>
+        <v>POL_motorized_AC_equipment_07_short:9 "Panzerwagen wz. 28"</v>
       </c>
       <c r="D140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A140),"",C140)</f>
-        <v> POL_motorized_AC_equipment_07_short:9 "Panzerwagen wz. 28"</v>
+        <v>POL_motorized_AC_equipment_07_short:9 "Panzerwagen wz. 28"</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,11 +3090,11 @@
       </c>
       <c r="C141" s="1" t="str">
         <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
-        <v> POL_motorized_AC_equipment_08:9 "Panzerwagen wz. 29"</v>
+        <v>POL_motorized_AC_equipment_08:9 "Panzerwagen wz. 29"</v>
       </c>
       <c r="D141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A141),"",C141)</f>
-        <v> POL_motorized_AC_equipment_08:9 "Panzerwagen wz. 29"</v>
+        <v>POL_motorized_AC_equipment_08:9 "Panzerwagen wz. 29"</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,11 +3106,11 @@
       </c>
       <c r="C142" s="1" t="str">
         <f aca="false">A142 &amp;" " &amp;"""" &amp;B142 &amp;""""</f>
-        <v> POL_motorized_AC_equipment_08_short:9 "Panzerwagen wz. 29"</v>
+        <v>POL_motorized_AC_equipment_08_short:9 "Panzerwagen wz. 29"</v>
       </c>
       <c r="D142" s="1" t="str">
         <f aca="false">IF(ISBLANK(A142),"",C142)</f>
-        <v> POL_motorized_AC_equipment_08_short:9 "Panzerwagen wz. 29"</v>
+        <v>POL_motorized_AC_equipment_08_short:9 "Panzerwagen wz. 29"</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,11 +3122,11 @@
       </c>
       <c r="C143" s="1" t="str">
         <f aca="false">A143 &amp;" " &amp;"""" &amp;B143 &amp;""""</f>
-        <v> POL_motorized_AC_equipment_09:9 "Panzerwagen wz. 31"</v>
+        <v>POL_motorized_AC_equipment_09:9 "Panzerwagen wz. 31"</v>
       </c>
       <c r="D143" s="1" t="str">
         <f aca="false">IF(ISBLANK(A143),"",C143)</f>
-        <v> POL_motorized_AC_equipment_09:9 "Panzerwagen wz. 31"</v>
+        <v>POL_motorized_AC_equipment_09:9 "Panzerwagen wz. 31"</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,11 +3138,11 @@
       </c>
       <c r="C144" s="1" t="str">
         <f aca="false">A144 &amp;" " &amp;"""" &amp;B144 &amp;""""</f>
-        <v> POL_motorized_AC_equipment_09_short:9 "Panzerwagen wz. 31"</v>
+        <v>POL_motorized_AC_equipment_09_short:9 "Panzerwagen wz. 31"</v>
       </c>
       <c r="D144" s="1" t="str">
         <f aca="false">IF(ISBLANK(A144),"",C144)</f>
-        <v> POL_motorized_AC_equipment_09_short:9 "Panzerwagen wz. 31"</v>
+        <v>POL_motorized_AC_equipment_09_short:9 "Panzerwagen wz. 31"</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,11 +3154,11 @@
       </c>
       <c r="C145" s="1" t="str">
         <f aca="false">A145 &amp;" " &amp;"""" &amp;B145 &amp;""""</f>
-        <v> POL_motorized_AC_equipment_099:9 "Panzerwagen wz. 34"</v>
+        <v>POL_motorized_AC_equipment_099:9 "Panzerwagen wz. 34"</v>
       </c>
       <c r="D145" s="1" t="str">
         <f aca="false">IF(ISBLANK(A145),"",C145)</f>
-        <v> POL_motorized_AC_equipment_099:9 "Panzerwagen wz. 34"</v>
+        <v>POL_motorized_AC_equipment_099:9 "Panzerwagen wz. 34"</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,17 +3170,17 @@
       </c>
       <c r="C146" s="1" t="str">
         <f aca="false">A146 &amp;" " &amp;"""" &amp;B146 &amp;""""</f>
-        <v> POL_motorized_AC_equipment_099_short:9 "Panzerwagen wz. 34"</v>
+        <v>POL_motorized_AC_equipment_099_short:9 "Panzerwagen wz. 34"</v>
       </c>
       <c r="D146" s="1" t="str">
         <f aca="false">IF(ISBLANK(A146),"",C146)</f>
-        <v> POL_motorized_AC_equipment_099_short:9 "Panzerwagen wz. 34"</v>
+        <v>POL_motorized_AC_equipment_099_short:9 "Panzerwagen wz. 34"</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C147" s="1" t="str">
         <f aca="false">A147 &amp;" " &amp;"""" &amp;B147 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D147" s="1" t="str">
         <f aca="false">IF(ISBLANK(A147),"",C147)</f>
@@ -3192,11 +3196,11 @@
       </c>
       <c r="C148" s="1" t="str">
         <f aca="false">A148 &amp;" " &amp;"""" &amp;B148 &amp;""""</f>
-        <v> POL_motorized_lia_equipment_01:9 "Polnischer Fiat 508 Lazik"</v>
+        <v>POL_motorized_lia_equipment_01:9 "Polnischer Fiat 508 Lazik"</v>
       </c>
       <c r="D148" s="1" t="str">
         <f aca="false">IF(ISBLANK(A148),"",C148)</f>
-        <v> POL_motorized_lia_equipment_01:9 "Polnischer Fiat 508 Lazik"</v>
+        <v>POL_motorized_lia_equipment_01:9 "Polnischer Fiat 508 Lazik"</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,11 +3212,11 @@
       </c>
       <c r="C149" s="1" t="str">
         <f aca="false">A149 &amp;" " &amp;"""" &amp;B149 &amp;""""</f>
-        <v> POL_motorized_lia_equipment_01_short:9 "Fiat 508 Lazik"</v>
+        <v>POL_motorized_lia_equipment_01_short:9 "Fiat 508 Lazik"</v>
       </c>
       <c r="D149" s="1" t="str">
         <f aca="false">IF(ISBLANK(A149),"",C149)</f>
-        <v> POL_motorized_lia_equipment_01_short:9 "Fiat 508 Lazik"</v>
+        <v>POL_motorized_lia_equipment_01_short:9 "Fiat 508 Lazik"</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,11 +3228,11 @@
       </c>
       <c r="C150" s="1" t="str">
         <f aca="false">A150 &amp;" " &amp;"""" &amp;B150 &amp;""""</f>
-        <v> POL_motorized_lia_equipment_02:9 "PZInz 303"</v>
+        <v>POL_motorized_lia_equipment_02:9 "PZInz 303"</v>
       </c>
       <c r="D150" s="1" t="str">
         <f aca="false">IF(ISBLANK(A150),"",C150)</f>
-        <v> POL_motorized_lia_equipment_02:9 "PZInz 303"</v>
+        <v>POL_motorized_lia_equipment_02:9 "PZInz 303"</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,11 +3244,11 @@
       </c>
       <c r="C151" s="1" t="str">
         <f aca="false">A151 &amp;" " &amp;"""" &amp;B151 &amp;""""</f>
-        <v> POL_motorized_lia_equipment_02_short:9 "PZInz 303"</v>
+        <v>POL_motorized_lia_equipment_02_short:9 "PZInz 303"</v>
       </c>
       <c r="D151" s="1" t="str">
         <f aca="false">IF(ISBLANK(A151),"",C151)</f>
-        <v> POL_motorized_lia_equipment_02_short:9 "PZInz 303"</v>
+        <v>POL_motorized_lia_equipment_02_short:9 "PZInz 303"</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,11 +3257,11 @@
       </c>
       <c r="C152" s="1" t="str">
         <f aca="false">A152 &amp;" " &amp;"""" &amp;B152 &amp;""""</f>
-        <v>  ""</v>
+        <v>""</v>
       </c>
       <c r="D152" s="1" t="str">
         <f aca="false">IF(ISBLANK(A152),"",C152)</f>
-        <v>  ""</v>
+        <v>""</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,11 +3273,11 @@
       </c>
       <c r="C153" s="1" t="str">
         <f aca="false">A153 &amp;" " &amp;"""" &amp;B153 &amp;""""</f>
-        <v> POL_light_tank_equipment_1:9 "4TP Leichter Panzer"</v>
+        <v>POL_light_tank_equipment_1:9 "4TP Leichter Panzer"</v>
       </c>
       <c r="D153" s="1" t="str">
         <f aca="false">IF(ISBLANK(A153),"",C153)</f>
-        <v> POL_light_tank_equipment_1:9 "4TP Leichter Panzer"</v>
+        <v>POL_light_tank_equipment_1:9 "4TP Leichter Panzer"</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,11 +3289,11 @@
       </c>
       <c r="C154" s="1" t="str">
         <f aca="false">A154 &amp;" " &amp;"""" &amp;B154 &amp;""""</f>
-        <v> POL_light_tank_equipment_1_short:9 "4TP"</v>
+        <v>POL_light_tank_equipment_1_short:9 "4TP"</v>
       </c>
       <c r="D154" s="1" t="str">
         <f aca="false">IF(ISBLANK(A154),"",C154)</f>
-        <v> POL_light_tank_equipment_1_short:9 "4TP"</v>
+        <v>POL_light_tank_equipment_1_short:9 "4TP"</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,11 +3305,11 @@
       </c>
       <c r="C155" s="1" t="str">
         <f aca="false">A155 &amp;" " &amp;"""" &amp;B155 &amp;""""</f>
-        <v> POL_light_tank_equipment_2:9 "R35 Leichter Panzer"</v>
+        <v>POL_light_tank_equipment_2:9 "R35 Leichter Panzer"</v>
       </c>
       <c r="D155" s="1" t="str">
         <f aca="false">IF(ISBLANK(A155),"",C155)</f>
-        <v> POL_light_tank_equipment_2:9 "R35 Leichter Panzer"</v>
+        <v>POL_light_tank_equipment_2:9 "R35 Leichter Panzer"</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,11 +3321,11 @@
       </c>
       <c r="C156" s="1" t="str">
         <f aca="false">A156 &amp;" " &amp;"""" &amp;B156 &amp;""""</f>
-        <v> POL_light_tank_equipment_2_short:9 "R35"</v>
+        <v>POL_light_tank_equipment_2_short:9 "R35"</v>
       </c>
       <c r="D156" s="1" t="str">
         <f aca="false">IF(ISBLANK(A156),"",C156)</f>
-        <v> POL_light_tank_equipment_2_short:9 "R35"</v>
+        <v>POL_light_tank_equipment_2_short:9 "R35"</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,11 +3337,11 @@
       </c>
       <c r="C157" s="1" t="str">
         <f aca="false">A157 &amp;" " &amp;"""" &amp;B157 &amp;""""</f>
-        <v> POL_light_tank_equipment_3:9 "7TP Leichter Panzer"</v>
+        <v>POL_light_tank_equipment_3:9 "7TP Leichter Panzer"</v>
       </c>
       <c r="D157" s="1" t="str">
         <f aca="false">IF(ISBLANK(A157),"",C157)</f>
-        <v> POL_light_tank_equipment_3:9 "7TP Leichter Panzer"</v>
+        <v>POL_light_tank_equipment_3:9 "7TP Leichter Panzer"</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,11 +3353,11 @@
       </c>
       <c r="C158" s="1" t="str">
         <f aca="false">A158 &amp;" " &amp;"""" &amp;B158 &amp;""""</f>
-        <v> POL_light_tank_equipment_3_short:9 "7TP"</v>
+        <v>POL_light_tank_equipment_3_short:9 "7TP"</v>
       </c>
       <c r="D158" s="1" t="str">
         <f aca="false">IF(ISBLANK(A158),"",C158)</f>
-        <v> POL_light_tank_equipment_3_short:9 "7TP"</v>
+        <v>POL_light_tank_equipment_3_short:9 "7TP"</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,11 +3369,11 @@
       </c>
       <c r="C159" s="1" t="str">
         <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
-        <v> POL_light_tank_equipment_4:9 "9TP Leichter Panzer"</v>
+        <v>POL_light_tank_equipment_4:9 "9TP Leichter Panzer"</v>
       </c>
       <c r="D159" s="1" t="str">
         <f aca="false">IF(ISBLANK(A159),"",C159)</f>
-        <v> POL_light_tank_equipment_4:9 "9TP Leichter Panzer"</v>
+        <v>POL_light_tank_equipment_4:9 "9TP Leichter Panzer"</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,17 +3385,17 @@
       </c>
       <c r="C160" s="1" t="str">
         <f aca="false">A160 &amp;" " &amp;"""" &amp;B160 &amp;""""</f>
-        <v> POL_light_tank_equipment_4_short:9 "9TP"</v>
+        <v>POL_light_tank_equipment_4_short:9 "9TP"</v>
       </c>
       <c r="D160" s="1" t="str">
         <f aca="false">IF(ISBLANK(A160),"",C160)</f>
-        <v> POL_light_tank_equipment_4_short:9 "9TP"</v>
+        <v>POL_light_tank_equipment_4_short:9 "9TP"</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C161" s="1" t="str">
         <f aca="false">A161 &amp;" " &amp;"""" &amp;B161 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D161" s="1" t="str">
         <f aca="false">IF(ISBLANK(A161),"",C161)</f>
@@ -3407,11 +3411,11 @@
       </c>
       <c r="C162" s="1" t="str">
         <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
-        <v> POL_cavalry_tank_equipment_0:9 "10TP Kreuzerpanzer"</v>
+        <v>POL_cavalry_tank_equipment_0:9 "10TP Kreuzerpanzer"</v>
       </c>
       <c r="D162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A162),"",C162)</f>
-        <v> POL_cavalry_tank_equipment_0:9 "10TP Kreuzerpanzer"</v>
+        <v>POL_cavalry_tank_equipment_0:9 "10TP Kreuzerpanzer"</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3423,11 +3427,11 @@
       </c>
       <c r="C163" s="1" t="str">
         <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
-        <v> POL_cavalry_tank_equipment_0_short:9 "10TP"</v>
+        <v>POL_cavalry_tank_equipment_0_short:9 "10TP"</v>
       </c>
       <c r="D163" s="1" t="str">
         <f aca="false">IF(ISBLANK(A163),"",C163)</f>
-        <v> POL_cavalry_tank_equipment_0_short:9 "10TP"</v>
+        <v>POL_cavalry_tank_equipment_0_short:9 "10TP"</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3439,11 +3443,11 @@
       </c>
       <c r="C164" s="1" t="str">
         <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v> POL_cavalry_tank_equipment_1:9 "14TP Kreuzer-Panzer"</v>
+        <v>POL_cavalry_tank_equipment_1:9 "14TP Kreuzer-Panzer"</v>
       </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
-        <v> POL_cavalry_tank_equipment_1:9 "14TP Kreuzer-Panzer"</v>
+        <v>POL_cavalry_tank_equipment_1:9 "14TP Kreuzer-Panzer"</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,11 +3459,11 @@
       </c>
       <c r="C165" s="1" t="str">
         <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v> POL_cavalry_tank_equipment_1_short:9 "14TP"</v>
+        <v>POL_cavalry_tank_equipment_1_short:9 "14TP"</v>
       </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
-        <v> POL_cavalry_tank_equipment_1_short:9 "14TP"</v>
+        <v>POL_cavalry_tank_equipment_1_short:9 "14TP"</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3471,11 +3475,11 @@
       </c>
       <c r="C166" s="1" t="str">
         <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
-        <v> POL_cavalry_tank_equipment_2:9 "T-39 Kreuzerpanzer"</v>
+        <v>POL_cavalry_tank_equipment_2:9 "T-39 Kreuzerpanzer"</v>
       </c>
       <c r="D166" s="1" t="str">
         <f aca="false">IF(ISBLANK(A166),"",C166)</f>
-        <v> POL_cavalry_tank_equipment_2:9 "T-39 Kreuzerpanzer"</v>
+        <v>POL_cavalry_tank_equipment_2:9 "T-39 Kreuzerpanzer"</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,17 +3491,17 @@
       </c>
       <c r="C167" s="1" t="str">
         <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
-        <v> POL_cavalry_tank_equipment_2_short:9 "T-39"</v>
+        <v>POL_cavalry_tank_equipment_2_short:9 "T-39"</v>
       </c>
       <c r="D167" s="1" t="str">
         <f aca="false">IF(ISBLANK(A167),"",C167)</f>
-        <v> POL_cavalry_tank_equipment_2_short:9 "T-39"</v>
+        <v>POL_cavalry_tank_equipment_2_short:9 "T-39"</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C168" s="1" t="str">
         <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
@@ -3513,11 +3517,11 @@
       </c>
       <c r="C169" s="1" t="str">
         <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
-        <v> POL_medium_tank_equipment_1:9 "22TP"</v>
+        <v>POL_medium_tank_equipment_1:9 "22TP"</v>
       </c>
       <c r="D169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A169),"",C169)</f>
-        <v> POL_medium_tank_equipment_1:9 "22TP"</v>
+        <v>POL_medium_tank_equipment_1:9 "22TP"</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,11 +3533,11 @@
       </c>
       <c r="C170" s="1" t="str">
         <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
-        <v> POL_medium_tank_equipment_1_short:9 "22TP"</v>
+        <v>POL_medium_tank_equipment_1_short:9 "22TP"</v>
       </c>
       <c r="D170" s="1" t="str">
         <f aca="false">IF(ISBLANK(A170),"",C170)</f>
-        <v> POL_medium_tank_equipment_1_short:9 "22TP"</v>
+        <v>POL_medium_tank_equipment_1_short:9 "22TP"</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3545,11 +3549,11 @@
       </c>
       <c r="C171" s="1" t="str">
         <f aca="false">A171 &amp;" " &amp;"""" &amp;B171 &amp;""""</f>
-        <v> POL_medium_tank_equipment_2:9 "23TP"</v>
+        <v>POL_medium_tank_equipment_2:9 "23TP"</v>
       </c>
       <c r="D171" s="1" t="str">
         <f aca="false">IF(ISBLANK(A171),"",C171)</f>
-        <v> POL_medium_tank_equipment_2:9 "23TP"</v>
+        <v>POL_medium_tank_equipment_2:9 "23TP"</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,11 +3565,11 @@
       </c>
       <c r="C172" s="1" t="str">
         <f aca="false">A172 &amp;" " &amp;"""" &amp;B172 &amp;""""</f>
-        <v> POL_medium_tank_equipment_2_short:9 "23TP"</v>
+        <v>POL_medium_tank_equipment_2_short:9 "23TP"</v>
       </c>
       <c r="D172" s="1" t="str">
         <f aca="false">IF(ISBLANK(A172),"",C172)</f>
-        <v> POL_medium_tank_equipment_2_short:9 "23TP"</v>
+        <v>POL_medium_tank_equipment_2_short:9 "23TP"</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,11 +3581,11 @@
       </c>
       <c r="C173" s="1" t="str">
         <f aca="false">A173 &amp;" " &amp;"""" &amp;B173 &amp;""""</f>
-        <v> POL_medium_tank_equipment_3:9 "25TP"</v>
+        <v>POL_medium_tank_equipment_3:9 "25TP"</v>
       </c>
       <c r="D173" s="1" t="str">
         <f aca="false">IF(ISBLANK(A173),"",C173)</f>
-        <v> POL_medium_tank_equipment_3:9 "25TP"</v>
+        <v>POL_medium_tank_equipment_3:9 "25TP"</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,11 +3597,11 @@
       </c>
       <c r="C174" s="1" t="str">
         <f aca="false">A174 &amp;" " &amp;"""" &amp;B174 &amp;""""</f>
-        <v> POL_medium_tank_equipment_3_short:9 "25TP"</v>
+        <v>POL_medium_tank_equipment_3_short:9 "25TP"</v>
       </c>
       <c r="D174" s="1" t="str">
         <f aca="false">IF(ISBLANK(A174),"",C174)</f>
-        <v> POL_medium_tank_equipment_3_short:9 "25TP"</v>
+        <v>POL_medium_tank_equipment_3_short:9 "25TP"</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,11 +3613,11 @@
       </c>
       <c r="C175" s="1" t="str">
         <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
-        <v> POL_medium_tank_equipment_3:9 "25TP PZInz"</v>
+        <v>POL_medium_tank_equipment_3:9 "25TP PZInz"</v>
       </c>
       <c r="D175" s="1" t="str">
         <f aca="false">IF(ISBLANK(A175),"",C175)</f>
-        <v> POL_medium_tank_equipment_3:9 "25TP PZInz"</v>
+        <v>POL_medium_tank_equipment_3:9 "25TP PZInz"</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,11 +3629,11 @@
       </c>
       <c r="C176" s="1" t="str">
         <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
-        <v> POL_medium_tank_equipment_3_short:9 "25TP PZInz"</v>
+        <v>POL_medium_tank_equipment_3_short:9 "25TP PZInz"</v>
       </c>
       <c r="D176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A176),"",C176)</f>
-        <v> POL_medium_tank_equipment_3_short:9 "25TP PZInz"</v>
+        <v>POL_medium_tank_equipment_3_short:9 "25TP PZInz"</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,11 +3645,11 @@
       </c>
       <c r="C177" s="1" t="str">
         <f aca="false">A177 &amp;" " &amp;"""" &amp;B177 &amp;""""</f>
-        <v> POL_medium_tank_equipment_4_short:9 "25TP Habich"</v>
+        <v>POL_medium_tank_equipment_4_short:9 "25TP Habich"</v>
       </c>
       <c r="D177" s="1" t="str">
         <f aca="false">IF(ISBLANK(A177),"",C177)</f>
-        <v> POL_medium_tank_equipment_4_short:9 "25TP Habich"</v>
+        <v>POL_medium_tank_equipment_4_short:9 "25TP Habich"</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3657,17 +3661,17 @@
       </c>
       <c r="C178" s="1" t="str">
         <f aca="false">A178 &amp;" " &amp;"""" &amp;B178 &amp;""""</f>
-        <v> POL_medium_tank_equipment_4:9 "25TP Habich"</v>
+        <v>POL_medium_tank_equipment_4:9 "25TP Habich"</v>
       </c>
       <c r="D178" s="1" t="str">
         <f aca="false">IF(ISBLANK(A178),"",C178)</f>
-        <v> POL_medium_tank_equipment_4:9 "25TP Habich"</v>
+        <v>POL_medium_tank_equipment_4:9 "25TP Habich"</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C179" s="1" t="str">
         <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
@@ -3683,11 +3687,11 @@
       </c>
       <c r="C180" s="1" t="str">
         <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
-        <v> POL_infantry_tank_equipment_0:9 "Vickers Mk.E dw"</v>
+        <v>POL_infantry_tank_equipment_0:9 "Vickers Mk.E dw"</v>
       </c>
       <c r="D180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A180),"",C180)</f>
-        <v> POL_infantry_tank_equipment_0:9 "Vickers Mk.E dw"</v>
+        <v>POL_infantry_tank_equipment_0:9 "Vickers Mk.E dw"</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,11 +3703,11 @@
       </c>
       <c r="C181" s="1" t="str">
         <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v> POL_infantry_tank_equipment_0_short:9 "Mk.E dw"</v>
+        <v>POL_infantry_tank_equipment_0_short:9 "Mk.E dw"</v>
       </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
-        <v> POL_infantry_tank_equipment_0_short:9 "Mk.E dw"</v>
+        <v>POL_infantry_tank_equipment_0_short:9 "Mk.E dw"</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,11 +3719,11 @@
       </c>
       <c r="C182" s="1" t="str">
         <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v> POL_infantry_tank_equipment_1:9 "Mathilda II"</v>
+        <v>POL_infantry_tank_equipment_1:9 "Mathilda II"</v>
       </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
-        <v> POL_infantry_tank_equipment_1:9 "Mathilda II"</v>
+        <v>POL_infantry_tank_equipment_1:9 "Mathilda II"</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3731,17 +3735,17 @@
       </c>
       <c r="C183" s="1" t="str">
         <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
-        <v> POL_infantry_tank_equipment_1_short:9 "Mathilda II"</v>
+        <v>POL_infantry_tank_equipment_1_short:9 "Mathilda II"</v>
       </c>
       <c r="D183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A183),"",C183)</f>
-        <v> POL_infantry_tank_equipment_1_short:9 "Mathilda II"</v>
+        <v>POL_infantry_tank_equipment_1_short:9 "Mathilda II"</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C184" s="1" t="str">
         <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v> ""</v>
+        <v>""</v>
       </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
@@ -3754,11 +3758,11 @@
       </c>
       <c r="C185" s="1" t="str">
         <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v> ##EOF## ""</v>
+        <v>##EOF## ""</v>
       </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
-        <v> ##EOF## ""</v>
+        <v>##EOF## ""</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,7 +4336,7 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="2"/>
+      <c r="B281" s="3"/>
       <c r="D281" s="1" t="str">
         <f aca="false">IF(ISBLANK(A281),"",C281)</f>
         <v/>
@@ -8371,7 +8375,7 @@
       </c>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B954" s="2"/>
+      <c r="B954" s="3"/>
       <c r="D954" s="1" t="str">
         <f aca="false">IF(ISBLANK(A954),"",C954)</f>
         <v/>
@@ -14930,14 +14934,14 @@
       </c>
     </row>
     <row r="2047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2047" s="2"/>
+      <c r="B2047" s="3"/>
       <c r="D2047" s="1" t="str">
         <f aca="false">IF(ISBLANK(A2047),"",C2047)</f>
         <v/>
       </c>
     </row>
     <row r="2048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2048" s="2"/>
+      <c r="B2048" s="3"/>
       <c r="D2048" s="1" t="str">
         <f aca="false">IF(ISBLANK(A2048),"",C2048)</f>
         <v/>
@@ -18148,7 +18152,7 @@
       </c>
     </row>
     <row r="2583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2583" s="2"/>
+      <c r="B2583" s="3"/>
       <c r="D2583" s="1" t="str">
         <f aca="false">IF(ISBLANK(A2583),"",C2583)</f>
         <v/>
